--- a/input_output/model_input_9groups.xlsx
+++ b/input_output/model_input_9groups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/Master V22/master2022/Old Model/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/Master V22/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38B9853-04EC-3649-8B72-9B17AC78B71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A868A1-78F3-6A41-890F-1D8A6AE09FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="500" windowWidth="34880" windowHeight="17500" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MC" sheetId="12" r:id="rId3"/>
     <sheet name="IC" sheetId="5" r:id="rId4"/>
     <sheet name="MCcalculation" sheetId="16" r:id="rId5"/>
+    <sheet name="ICcalculation" sheetId="17" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028" calcOnSave="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="229">
   <si>
     <t>Wards</t>
   </si>
@@ -556,9 +557,6 @@
     <t>Calculations of Y 2 specialties</t>
   </si>
   <si>
-    <t>2 spec</t>
-  </si>
-  <si>
     <t>3 spec</t>
   </si>
   <si>
@@ -686,12 +684,57 @@
   </si>
   <si>
     <t>Y28</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>utilization</t>
+  </si>
+  <si>
+    <t>B=</t>
+  </si>
+  <si>
+    <t>evryday_util</t>
+  </si>
+  <si>
+    <t>weekend_util</t>
+  </si>
+  <si>
+    <t>total_util</t>
+  </si>
+  <si>
+    <t>utilization_target</t>
+  </si>
+  <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 spec </t>
+  </si>
+  <si>
+    <t>2 sepc</t>
+  </si>
+  <si>
+    <t>9 groups</t>
+  </si>
+  <si>
+    <t>4 groups</t>
+  </si>
+  <si>
+    <t>5 groups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1004,14 +1047,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1086,13 +1130,17 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent4" xfId="1" builtinId="42"/>
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{8F977E11-39D4-E04C-8D51-A4F1FE1B59AD}"/>
+    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1406,15 +1454,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="CA4" sqref="CA4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="10.1640625" customWidth="1"/>
     <col min="7" max="7" width="2.83203125" customWidth="1"/>
-    <col min="9" max="36" width="3.5" customWidth="1"/>
+    <col min="9" max="36" width="4.6640625" customWidth="1"/>
     <col min="37" max="37" width="7" customWidth="1"/>
     <col min="38" max="38" width="4.5" customWidth="1"/>
     <col min="39" max="39" width="11.1640625" customWidth="1"/>
@@ -1708,28 +1756,28 @@
         <v>169</v>
       </c>
       <c r="CT1" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU1" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CV1" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CW1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CX1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CY1" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="DA1" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1754,88 +1802,88 @@
         <v>33</v>
       </c>
       <c r="I2" s="27">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M2" s="28">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="N2" s="28">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="O2" s="28">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="P2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="R2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="S2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="T2" s="28">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="U2" s="28">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="V2" s="28">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="W2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="X2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AA2" s="28">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="AB2" s="28">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="AC2" s="28">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="AD2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AE2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AF2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AG2" s="28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AH2" s="28">
-        <v>49</v>
+        <v>24.5</v>
       </c>
       <c r="AI2" s="28">
-        <v>49</v>
-      </c>
-      <c r="AJ2" s="29">
-        <v>49</v>
+        <v>24.5</v>
+      </c>
+      <c r="AJ2" s="28">
+        <v>24.5</v>
       </c>
       <c r="AK2" s="47">
         <v>20</v>
@@ -2055,88 +2103,88 @@
         <v>44</v>
       </c>
       <c r="I3" s="14">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="J3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="K3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="L3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="M3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="R3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="S3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="T3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="X3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Z3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AA3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AE3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AF3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AG3" s="15">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AH3" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI3" s="15">
-        <v>6</v>
-      </c>
-      <c r="AJ3" s="16">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>3</v>
       </c>
       <c r="AK3" s="48">
         <v>2</v>
@@ -6054,7 +6102,7 @@
   <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B2" sqref="B2:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7459,10 +7507,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667ADA00-9768-9E42-A64A-5CCA52F9FA00}">
-  <dimension ref="A1:BE74"/>
+  <dimension ref="A1:BH86"/>
   <sheetViews>
-    <sheetView topLeftCell="AO44" workbookViewId="0">
-      <selection activeCell="AY60" sqref="AY60"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8218,7 +8266,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -8247,7 +8295,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -8338,8 +8386,11 @@
         <f>W34/20</f>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AA34" s="47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -8430,8 +8481,11 @@
         <f t="shared" ref="X35:X42" si="2">W35/20</f>
         <v>1.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AA35" s="60">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -8522,8 +8576,11 @@
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AA36" s="60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -8614,8 +8671,11 @@
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AA37" s="60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -8706,8 +8766,11 @@
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AA38" s="60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -8798,8 +8861,11 @@
         <f t="shared" si="2"/>
         <v>5.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AA39" s="60">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -8890,8 +8956,11 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AA40" s="60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -8982,8 +9051,11 @@
         <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA41" s="60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -9074,9 +9146,12 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA42" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -9161,7 +9236,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>143</v>
       </c>
@@ -9247,7 +9322,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>1</v>
       </c>
@@ -9332,92 +9407,92 @@
       <c r="AC48" s="68">
         <v>28</v>
       </c>
-      <c r="AD48">
+      <c r="AG48">
         <v>1</v>
       </c>
-      <c r="AE48">
+      <c r="AH48">
         <v>2</v>
       </c>
-      <c r="AF48">
+      <c r="AI48">
         <v>3</v>
       </c>
-      <c r="AG48">
+      <c r="AJ48">
         <v>4</v>
       </c>
-      <c r="AH48">
+      <c r="AK48">
         <v>5</v>
       </c>
-      <c r="AI48">
+      <c r="AL48">
         <v>6</v>
       </c>
-      <c r="AJ48">
+      <c r="AM48">
         <v>7</v>
       </c>
-      <c r="AK48">
+      <c r="AN48">
         <v>8</v>
       </c>
-      <c r="AL48">
+      <c r="AO48">
         <v>9</v>
       </c>
-      <c r="AM48">
+      <c r="AP48">
         <v>10</v>
       </c>
-      <c r="AN48">
+      <c r="AQ48">
         <v>11</v>
       </c>
-      <c r="AO48">
+      <c r="AR48">
         <v>12</v>
       </c>
-      <c r="AP48">
+      <c r="AS48">
         <v>13</v>
       </c>
-      <c r="AQ48">
+      <c r="AT48">
         <v>14</v>
       </c>
-      <c r="AR48">
+      <c r="AU48">
         <v>15</v>
       </c>
-      <c r="AS48">
+      <c r="AV48">
         <v>16</v>
       </c>
-      <c r="AT48">
+      <c r="AW48">
         <v>17</v>
       </c>
-      <c r="AU48">
+      <c r="AX48">
         <v>18</v>
       </c>
-      <c r="AV48">
+      <c r="AY48">
         <v>19</v>
       </c>
-      <c r="AW48">
+      <c r="AZ48">
         <v>20</v>
       </c>
-      <c r="AX48">
+      <c r="BA48">
         <v>21</v>
       </c>
-      <c r="AY48">
+      <c r="BB48">
         <v>22</v>
       </c>
-      <c r="AZ48">
+      <c r="BC48">
         <v>23</v>
       </c>
-      <c r="BA48">
+      <c r="BD48">
         <v>24</v>
       </c>
-      <c r="BB48">
+      <c r="BE48">
         <v>25</v>
       </c>
-      <c r="BC48">
+      <c r="BF48">
         <v>26</v>
       </c>
-      <c r="BD48">
+      <c r="BG48">
         <v>27</v>
       </c>
-      <c r="BE48">
+      <c r="BH48">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B49">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9500,7 +9575,7 @@
       </c>
       <c r="AC49" s="68"/>
     </row>
-    <row r="50" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C50">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9583,7 +9658,7 @@
       </c>
       <c r="AC50" s="68"/>
     </row>
-    <row r="51" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:45" x14ac:dyDescent="0.2">
       <c r="D51">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9666,7 +9741,7 @@
       </c>
       <c r="AC51" s="68"/>
     </row>
-    <row r="52" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:45" x14ac:dyDescent="0.2">
       <c r="E52">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9749,7 +9824,7 @@
       </c>
       <c r="AC52" s="68"/>
     </row>
-    <row r="53" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:45" x14ac:dyDescent="0.2">
       <c r="F53">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9832,7 +9907,7 @@
       </c>
       <c r="AC53" s="68"/>
     </row>
-    <row r="54" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:45" x14ac:dyDescent="0.2">
       <c r="I54">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9915,7 +9990,7 @@
       </c>
       <c r="AC54" s="68"/>
     </row>
-    <row r="55" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:45" x14ac:dyDescent="0.2">
       <c r="J55">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9997,7 +10072,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:45" x14ac:dyDescent="0.2">
       <c r="K56">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10074,12 +10149,12 @@
         <f>$T$44</f>
         <v>6.7274105222697125E-2</v>
       </c>
-      <c r="AD56">
+      <c r="AG56">
         <f>$U$44</f>
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:45" x14ac:dyDescent="0.2">
       <c r="L57">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10152,16 +10227,16 @@
         <f>$S$44</f>
         <v>0.10480151116365756</v>
       </c>
-      <c r="AD57">
+      <c r="AG57">
         <f>$T$44</f>
         <v>6.7274105222697125E-2</v>
       </c>
-      <c r="AE57">
+      <c r="AH57">
         <f>$U$44</f>
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:45" x14ac:dyDescent="0.2">
       <c r="M58">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10230,20 +10305,20 @@
         <f>$R$44</f>
         <v>0.15141474100488755</v>
       </c>
-      <c r="AD58">
+      <c r="AG58">
         <f>$S$44</f>
         <v>0.10480151116365756</v>
       </c>
-      <c r="AE58">
+      <c r="AH58">
         <f>$T$44</f>
         <v>6.7274105222697125E-2</v>
       </c>
-      <c r="AF58">
+      <c r="AI58">
         <f>$U$44</f>
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:45" x14ac:dyDescent="0.2">
       <c r="P59">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10300,32 +10375,32 @@
         <f>$O$44</f>
         <v>0.33896413037858841</v>
       </c>
-      <c r="AD59">
+      <c r="AG59">
         <f>$P$44</f>
         <v>0.24278596391479312</v>
       </c>
-      <c r="AE59">
+      <c r="AH59">
         <f>$Q$44</f>
         <v>0.17631700790246649</v>
       </c>
-      <c r="AF59">
+      <c r="AI59">
         <f>$R$44</f>
         <v>0.15141474100488755</v>
       </c>
-      <c r="AG59">
+      <c r="AJ59">
         <f>$S$44</f>
         <v>0.10480151116365756</v>
       </c>
-      <c r="AH59">
+      <c r="AK59">
         <f>$T$44</f>
         <v>6.7274105222697125E-2</v>
       </c>
-      <c r="AI59">
+      <c r="AL59">
         <f>$U$44</f>
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:45" x14ac:dyDescent="0.2">
       <c r="Q60">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10378,36 +10453,36 @@
         <f>$N$44</f>
         <v>0.46332541848141801</v>
       </c>
-      <c r="AD60">
+      <c r="AG60">
         <f>$O$44</f>
         <v>0.33896413037858841</v>
       </c>
-      <c r="AE60">
+      <c r="AH60">
         <f>$P$44</f>
         <v>0.24278596391479312</v>
       </c>
-      <c r="AF60">
+      <c r="AI60">
         <f>$Q$44</f>
         <v>0.17631700790246649</v>
       </c>
-      <c r="AG60">
+      <c r="AJ60">
         <f>$R$44</f>
         <v>0.15141474100488755</v>
       </c>
-      <c r="AH60">
+      <c r="AK60">
         <f>$S$44</f>
         <v>0.10480151116365756</v>
       </c>
-      <c r="AI60">
+      <c r="AL60">
         <f>$T$44</f>
         <v>6.7274105222697125E-2</v>
       </c>
-      <c r="AJ60">
+      <c r="AM60">
         <f>$U$44</f>
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:45" x14ac:dyDescent="0.2">
       <c r="R61">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10456,40 +10531,40 @@
         <f>$M$44</f>
         <v>0.57975782174891322</v>
       </c>
-      <c r="AD61">
+      <c r="AG61">
         <f>$N$44</f>
         <v>0.46332541848141801</v>
       </c>
-      <c r="AE61">
+      <c r="AH61">
         <f>$O$44</f>
         <v>0.33896413037858841</v>
       </c>
-      <c r="AF61">
+      <c r="AI61">
         <f>$P$44</f>
         <v>0.24278596391479312</v>
       </c>
-      <c r="AG61">
+      <c r="AJ61">
         <f>$Q$44</f>
         <v>0.17631700790246649</v>
       </c>
-      <c r="AH61">
+      <c r="AK61">
         <f>$R$44</f>
         <v>0.15141474100488755</v>
       </c>
-      <c r="AI61">
+      <c r="AL61">
         <f>$S$44</f>
         <v>0.10480151116365756</v>
       </c>
-      <c r="AJ61">
+      <c r="AM61">
         <f>$T$44</f>
         <v>6.7274105222697125E-2</v>
       </c>
-      <c r="AK61">
+      <c r="AN61">
         <f>$U$44</f>
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:45" x14ac:dyDescent="0.2">
       <c r="S62">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10534,44 +10609,44 @@
         <f>$L$44</f>
         <v>0.68770582741126252</v>
       </c>
-      <c r="AD62">
+      <c r="AG62">
         <f>$M$44</f>
         <v>0.57975782174891322</v>
       </c>
-      <c r="AE62">
+      <c r="AH62">
         <f>$N$44</f>
         <v>0.46332541848141801</v>
       </c>
-      <c r="AF62">
+      <c r="AI62">
         <f>$O$44</f>
         <v>0.33896413037858841</v>
       </c>
-      <c r="AG62">
+      <c r="AJ62">
         <f>$P$44</f>
         <v>0.24278596391479312</v>
       </c>
-      <c r="AH62">
+      <c r="AK62">
         <f>$Q$44</f>
         <v>0.17631700790246649</v>
       </c>
-      <c r="AI62">
+      <c r="AL62">
         <f>$R$44</f>
         <v>0.15141474100488755</v>
       </c>
-      <c r="AJ62">
+      <c r="AM62">
         <f>$S$44</f>
         <v>0.10480151116365756</v>
       </c>
-      <c r="AK62">
+      <c r="AN62">
         <f>$T$44</f>
         <v>6.7274105222697125E-2</v>
       </c>
-      <c r="AL62">
+      <c r="AO62">
         <f>$U$44</f>
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:45" x14ac:dyDescent="0.2">
       <c r="T63">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10612,48 +10687,48 @@
         <f>$K$44</f>
         <v>0.88388653661402705</v>
       </c>
-      <c r="AD63">
+      <c r="AG63">
         <f>$L$44</f>
         <v>0.68770582741126252</v>
       </c>
-      <c r="AE63">
+      <c r="AH63">
         <f>$M$44</f>
         <v>0.57975782174891322</v>
       </c>
-      <c r="AF63">
+      <c r="AI63">
         <f>$N$44</f>
         <v>0.46332541848141801</v>
       </c>
-      <c r="AG63">
+      <c r="AJ63">
         <f>$O$44</f>
         <v>0.33896413037858841</v>
       </c>
-      <c r="AH63">
+      <c r="AK63">
         <f>$P$44</f>
         <v>0.24278596391479312</v>
       </c>
-      <c r="AI63">
+      <c r="AL63">
         <f>$Q$44</f>
         <v>0.17631700790246649</v>
       </c>
-      <c r="AJ63">
+      <c r="AM63">
         <f>$R$44</f>
         <v>0.15141474100488755</v>
       </c>
-      <c r="AK63">
+      <c r="AN63">
         <f>$S$44</f>
         <v>0.10480151116365756</v>
       </c>
-      <c r="AL63">
+      <c r="AO63">
         <f>$T$44</f>
         <v>6.7274105222697125E-2</v>
       </c>
-      <c r="AM63">
+      <c r="AP63">
         <f>$U$44</f>
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:45" x14ac:dyDescent="0.2">
       <c r="W64">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10682,60 +10757,60 @@
         <f>$H$44</f>
         <v>1.8951628545170152</v>
       </c>
-      <c r="AD64">
+      <c r="AG64">
         <f>$I$44</f>
         <v>1.4960387244074955</v>
       </c>
-      <c r="AE64">
+      <c r="AH64">
         <f>$J$44</f>
         <v>1.1374649314590288</v>
       </c>
-      <c r="AF64">
+      <c r="AI64">
         <f>$K$44</f>
         <v>0.88388653661402705</v>
       </c>
-      <c r="AG64">
+      <c r="AJ64">
         <f>$L$44</f>
         <v>0.68770582741126252</v>
       </c>
-      <c r="AH64">
+      <c r="AK64">
         <f>$M$44</f>
         <v>0.57975782174891322</v>
       </c>
-      <c r="AI64">
+      <c r="AL64">
         <f>$N$44</f>
         <v>0.46332541848141801</v>
       </c>
-      <c r="AJ64">
+      <c r="AM64">
         <f>$O$44</f>
         <v>0.33896413037858841</v>
       </c>
-      <c r="AK64">
+      <c r="AN64">
         <f>$P$44</f>
         <v>0.24278596391479312</v>
       </c>
-      <c r="AL64">
+      <c r="AO64">
         <f>$Q$44</f>
         <v>0.17631700790246649</v>
       </c>
-      <c r="AM64">
+      <c r="AP64">
         <f>$R$44</f>
         <v>0.15141474100488755</v>
       </c>
-      <c r="AN64">
+      <c r="AQ64">
         <f>$S$44</f>
         <v>0.10480151116365756</v>
       </c>
-      <c r="AO64">
+      <c r="AR64">
         <f>$T$44</f>
         <v>6.7274105222697125E-2</v>
       </c>
-      <c r="AP64">
+      <c r="AS64">
         <f>$U$44</f>
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="65" spans="24:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="X65">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10760,64 +10835,64 @@
         <f>$G$44</f>
         <v>2.3243414442437658</v>
       </c>
-      <c r="AD65">
+      <c r="AG65">
         <f>$H$44</f>
         <v>1.8951628545170152</v>
       </c>
-      <c r="AE65">
+      <c r="AH65">
         <f>$I$44</f>
         <v>1.4960387244074955</v>
       </c>
-      <c r="AF65">
+      <c r="AI65">
         <f>$J$44</f>
         <v>1.1374649314590288</v>
       </c>
-      <c r="AG65">
+      <c r="AJ65">
         <f>$K$44</f>
         <v>0.88388653661402705</v>
       </c>
-      <c r="AH65">
+      <c r="AK65">
         <f>$L$44</f>
         <v>0.68770582741126252</v>
       </c>
-      <c r="AI65">
+      <c r="AL65">
         <f>$M$44</f>
         <v>0.57975782174891322</v>
       </c>
-      <c r="AJ65">
+      <c r="AM65">
         <f>$N$44</f>
         <v>0.46332541848141801</v>
       </c>
-      <c r="AK65">
+      <c r="AN65">
         <f>$O$44</f>
         <v>0.33896413037858841</v>
       </c>
-      <c r="AL65">
+      <c r="AO65">
         <f>$P$44</f>
         <v>0.24278596391479312</v>
       </c>
-      <c r="AM65">
+      <c r="AP65">
         <f>$Q$44</f>
         <v>0.17631700790246649</v>
       </c>
-      <c r="AN65">
+      <c r="AQ65">
         <f>$R$44</f>
         <v>0.15141474100488755</v>
       </c>
-      <c r="AO65">
+      <c r="AR65">
         <f>$S$44</f>
         <v>0.10480151116365756</v>
       </c>
-      <c r="AP65">
+      <c r="AS65">
         <f>$T$44</f>
         <v>6.7274105222697125E-2</v>
       </c>
-      <c r="AQ65">
+      <c r="AT65">
         <f>$U$44</f>
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="66" spans="24:57" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Y66">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10838,68 +10913,68 @@
         <f>$F$44</f>
         <v>2.8114672797650213</v>
       </c>
-      <c r="AD66">
+      <c r="AG66">
         <f>$G$44</f>
         <v>2.3243414442437658</v>
       </c>
-      <c r="AE66">
+      <c r="AH66">
         <f>$H$44</f>
         <v>1.8951628545170152</v>
       </c>
-      <c r="AF66">
+      <c r="AI66">
         <f>$I$44</f>
         <v>1.4960387244074955</v>
       </c>
-      <c r="AG66">
+      <c r="AJ66">
         <f>$J$44</f>
         <v>1.1374649314590288</v>
       </c>
-      <c r="AH66">
+      <c r="AK66">
         <f>$K$44</f>
         <v>0.88388653661402705</v>
       </c>
-      <c r="AI66">
+      <c r="AL66">
         <f>$L$44</f>
         <v>0.68770582741126252</v>
       </c>
-      <c r="AJ66">
+      <c r="AM66">
         <f>$M$44</f>
         <v>0.57975782174891322</v>
       </c>
-      <c r="AK66">
+      <c r="AN66">
         <f>$N$44</f>
         <v>0.46332541848141801</v>
       </c>
-      <c r="AL66">
+      <c r="AO66">
         <f>$O$44</f>
         <v>0.33896413037858841</v>
       </c>
-      <c r="AM66">
+      <c r="AP66">
         <f>$P$44</f>
         <v>0.24278596391479312</v>
       </c>
-      <c r="AN66">
+      <c r="AQ66">
         <f>$Q$44</f>
         <v>0.17631700790246649</v>
       </c>
-      <c r="AO66">
+      <c r="AR66">
         <f>$R$44</f>
         <v>0.15141474100488755</v>
       </c>
-      <c r="AP66">
+      <c r="AS66">
         <f>$S$44</f>
         <v>0.10480151116365756</v>
       </c>
-      <c r="AQ66">
+      <c r="AT66">
         <f>$T$44</f>
         <v>6.7274105222697125E-2</v>
       </c>
-      <c r="AR66">
+      <c r="AU66">
         <f>$U$44</f>
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="67" spans="24:57" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Z67">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10916,72 +10991,72 @@
         <f>$E$44</f>
         <v>3.5041625459145349</v>
       </c>
-      <c r="AD67">
+      <c r="AG67">
         <f>$F$44</f>
         <v>2.8114672797650213</v>
       </c>
-      <c r="AE67">
+      <c r="AH67">
         <f>$G$44</f>
         <v>2.3243414442437658</v>
       </c>
-      <c r="AF67">
+      <c r="AI67">
         <f>$H$44</f>
         <v>1.8951628545170152</v>
       </c>
-      <c r="AG67">
+      <c r="AJ67">
         <f>$I$44</f>
         <v>1.4960387244074955</v>
       </c>
-      <c r="AH67">
+      <c r="AK67">
         <f>$J$44</f>
         <v>1.1374649314590288</v>
       </c>
-      <c r="AI67">
+      <c r="AL67">
         <f>$K$44</f>
         <v>0.88388653661402705</v>
       </c>
-      <c r="AJ67">
+      <c r="AM67">
         <f>$L$44</f>
         <v>0.68770582741126252</v>
       </c>
-      <c r="AK67">
+      <c r="AN67">
         <f>$M$44</f>
         <v>0.57975782174891322</v>
       </c>
-      <c r="AL67">
+      <c r="AO67">
         <f>$N$44</f>
         <v>0.46332541848141801</v>
       </c>
-      <c r="AM67">
+      <c r="AP67">
         <f>$O$44</f>
         <v>0.33896413037858841</v>
       </c>
-      <c r="AN67">
+      <c r="AQ67">
         <f>$P$44</f>
         <v>0.24278596391479312</v>
       </c>
-      <c r="AO67">
+      <c r="AR67">
         <f>$Q$44</f>
         <v>0.17631700790246649</v>
       </c>
-      <c r="AP67">
+      <c r="AS67">
         <f>$R$44</f>
         <v>0.15141474100488755</v>
       </c>
-      <c r="AQ67">
+      <c r="AT67">
         <f>$S$44</f>
         <v>0.10480151116365756</v>
       </c>
-      <c r="AR67">
+      <c r="AU67">
         <f>$T$44</f>
         <v>6.7274105222697125E-2</v>
       </c>
-      <c r="AS67">
+      <c r="AV67">
         <f>$U$44</f>
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="68" spans="24:57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AA68">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10994,169 +11069,4658 @@
         <f>$D$44</f>
         <v>4.2767458791286828</v>
       </c>
-      <c r="AD68">
+      <c r="AG68">
         <f>$E$44</f>
         <v>3.5041625459145349</v>
       </c>
-      <c r="AE68">
+      <c r="AH68">
         <f>$F$44</f>
         <v>2.8114672797650213</v>
       </c>
-      <c r="AF68">
+      <c r="AI68">
         <f>$G$44</f>
         <v>2.3243414442437658</v>
       </c>
-      <c r="AG68">
+      <c r="AJ68">
         <f>$H$44</f>
         <v>1.8951628545170152</v>
       </c>
-      <c r="AH68">
+      <c r="AK68">
         <f>$I$44</f>
         <v>1.4960387244074955</v>
       </c>
-      <c r="AI68">
+      <c r="AL68">
         <f>$J$44</f>
         <v>1.1374649314590288</v>
       </c>
-      <c r="AJ68">
+      <c r="AM68">
         <f>$K$44</f>
         <v>0.88388653661402705</v>
       </c>
-      <c r="AK68">
+      <c r="AN68">
         <f>$L$44</f>
         <v>0.68770582741126252</v>
       </c>
-      <c r="AL68">
+      <c r="AO68">
         <f>$M$44</f>
         <v>0.57975782174891322</v>
       </c>
-      <c r="AM68">
+      <c r="AP68">
         <f>$N$44</f>
         <v>0.46332541848141801</v>
       </c>
-      <c r="AN68">
+      <c r="AQ68">
         <f>$O$44</f>
         <v>0.33896413037858841</v>
       </c>
-      <c r="AO68">
+      <c r="AR68">
         <f>$P$44</f>
         <v>0.24278596391479312</v>
       </c>
-      <c r="AP68">
+      <c r="AS68">
         <f>$Q$44</f>
         <v>0.17631700790246649</v>
       </c>
-      <c r="AQ68">
+      <c r="AT68">
         <f>$R$44</f>
         <v>0.15141474100488755</v>
       </c>
-      <c r="AR68">
+      <c r="AU68">
         <f>$S$44</f>
         <v>0.10480151116365756</v>
       </c>
-      <c r="AS68">
+      <c r="AV68">
         <f>$T$44</f>
         <v>6.7274105222697125E-2</v>
       </c>
-      <c r="AT68">
+      <c r="AW68">
         <f>$U$44</f>
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="69" spans="24:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AC69" s="68"/>
-    </row>
-    <row r="70" spans="24:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AC70" s="24" t="s">
+    <row r="69" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>170</v>
       </c>
-      <c r="AD70" s="69">
-        <f>SUM(AD49:AD68)</f>
+      <c r="B69">
+        <f>AG70</f>
         <v>14.532825771838038</v>
       </c>
-      <c r="AE70" s="70">
-        <f t="shared" ref="AE70:BE70" si="4">SUM(AE49:AE68)</f>
+      <c r="C69">
+        <f t="shared" ref="C69:AC69" si="4">AH70</f>
         <v>11.549937826710078</v>
       </c>
-      <c r="AF70" s="70">
+      <c r="D69">
         <f t="shared" si="4"/>
         <v>9.1267398975923619</v>
       </c>
-      <c r="AG70" s="70">
+      <c r="E69">
         <f t="shared" si="4"/>
         <v>7.1145422287732218</v>
       </c>
-      <c r="AH70" s="70">
+      <c r="F69">
         <f t="shared" si="4"/>
         <v>5.5274471708492285</v>
       </c>
-      <c r="AI70" s="70">
+      <c r="G69">
         <f t="shared" si="4"/>
         <v>4.2689860456772335</v>
       </c>
-      <c r="AJ70" s="70">
+      <c r="H69">
         <f t="shared" si="4"/>
         <v>3.2941682366943263</v>
       </c>
-      <c r="AK70" s="70">
+      <c r="I69">
         <f t="shared" si="4"/>
         <v>2.5016529229902047</v>
       </c>
-      <c r="AL70" s="70">
+      <c r="J69">
         <f t="shared" si="4"/>
         <v>1.8854625923177513</v>
       </c>
-      <c r="AM70" s="70">
+      <c r="K69">
         <f t="shared" si="4"/>
         <v>1.3898454063510284</v>
       </c>
-      <c r="AN70" s="70">
+      <c r="L69">
         <f t="shared" si="4"/>
         <v>1.0142833543643932</v>
       </c>
-      <c r="AO70" s="70">
+      <c r="M69">
         <f t="shared" si="4"/>
         <v>0.74259332920850185</v>
       </c>
-      <c r="AP70" s="70">
+      <c r="N69">
         <f t="shared" si="4"/>
         <v>0.5168455099625836</v>
       </c>
-      <c r="AQ70" s="70">
+      <c r="O69">
         <f t="shared" si="4"/>
         <v>0.34052850206011714</v>
       </c>
-      <c r="AR70" s="70">
+      <c r="P69">
         <f t="shared" si="4"/>
         <v>0.18911376105522959</v>
       </c>
-      <c r="AS70" s="70">
+      <c r="Q69">
         <f t="shared" si="4"/>
         <v>8.4312249891572016E-2</v>
       </c>
-      <c r="AT70" s="70">
+      <c r="R69">
         <f t="shared" si="4"/>
         <v>1.7038144668874895E-2</v>
       </c>
+      <c r="S69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG70" s="69">
+        <f>SUM(AG49:AG68)</f>
+        <v>14.532825771838038</v>
+      </c>
+      <c r="AH70" s="70">
+        <f t="shared" ref="AH70:AZ70" si="5">SUM(AH49:AH68)</f>
+        <v>11.549937826710078</v>
+      </c>
+      <c r="AI70" s="70">
+        <f t="shared" si="5"/>
+        <v>9.1267398975923619</v>
+      </c>
+      <c r="AJ70" s="70">
+        <f t="shared" si="5"/>
+        <v>7.1145422287732218</v>
+      </c>
+      <c r="AK70" s="70">
+        <f t="shared" si="5"/>
+        <v>5.5274471708492285</v>
+      </c>
+      <c r="AL70" s="70">
+        <f t="shared" si="5"/>
+        <v>4.2689860456772335</v>
+      </c>
+      <c r="AM70" s="70">
+        <f t="shared" si="5"/>
+        <v>3.2941682366943263</v>
+      </c>
+      <c r="AN70" s="70">
+        <f t="shared" si="5"/>
+        <v>2.5016529229902047</v>
+      </c>
+      <c r="AO70" s="70">
+        <f t="shared" si="5"/>
+        <v>1.8854625923177513</v>
+      </c>
+      <c r="AP70" s="70">
+        <f t="shared" si="5"/>
+        <v>1.3898454063510284</v>
+      </c>
+      <c r="AQ70" s="70">
+        <f t="shared" si="5"/>
+        <v>1.0142833543643932</v>
+      </c>
+      <c r="AR70" s="70">
+        <f t="shared" si="5"/>
+        <v>0.74259332920850185</v>
+      </c>
+      <c r="AS70" s="70">
+        <f t="shared" si="5"/>
+        <v>0.5168455099625836</v>
+      </c>
+      <c r="AT70" s="70">
+        <f t="shared" si="5"/>
+        <v>0.34052850206011714</v>
+      </c>
       <c r="AU70" s="70">
+        <f t="shared" si="5"/>
+        <v>0.18911376105522959</v>
+      </c>
+      <c r="AV70" s="70">
+        <f t="shared" si="5"/>
+        <v>8.4312249891572016E-2</v>
+      </c>
+      <c r="AW70" s="70">
+        <f t="shared" si="5"/>
+        <v>1.7038144668874895E-2</v>
+      </c>
+      <c r="AX70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AZ70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BA70" s="70">
+        <v>0</v>
+      </c>
+      <c r="BB70" s="70">
+        <v>0</v>
+      </c>
+      <c r="BC70" s="70">
+        <v>0</v>
+      </c>
+      <c r="BD70" s="70">
+        <v>0</v>
+      </c>
+      <c r="BE70" s="70">
+        <v>0</v>
+      </c>
+      <c r="BF70" s="70">
+        <v>0</v>
+      </c>
+      <c r="BG70" s="70">
+        <v>0</v>
+      </c>
+      <c r="BH70" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71">
+        <f>SUM(B49:B69)</f>
+        <v>23.485498322395436</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:AC71" si="6">SUM(C49:C69)</f>
+        <v>26.747738239626049</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>28.601286189637012</v>
+      </c>
+      <c r="E71">
+        <f>SUM(E49:E69)</f>
+        <v>30.09325106673241</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="6"/>
+        <v>31.317623288573436</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>23.430831057087808</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>18.106048240263345</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="6"/>
+        <v>23.485498322395436</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="6"/>
+        <v>26.747738239626045</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="6"/>
+        <v>28.601286189637015</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="6"/>
+        <v>30.093251066732414</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="6"/>
+        <v>31.317623288573436</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="6"/>
+        <v>23.430831057087804</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="6"/>
+        <v>18.106048240263345</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="6"/>
+        <v>23.48549832239544</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="6"/>
+        <v>26.747738239626049</v>
+      </c>
+      <c r="R71">
+        <f>SUM(R49:R69)</f>
+        <v>28.601286189637008</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="6"/>
+        <v>30.093251066732407</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="6"/>
+        <v>31.317623288573436</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="6"/>
+        <v>23.430831057087808</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="6"/>
+        <v>18.106048240263348</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="6"/>
+        <v>23.485498322395436</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="6"/>
+        <v>26.747738239626045</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="6"/>
+        <v>28.601286189637015</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="6"/>
+        <v>30.093251066732407</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="6"/>
+        <v>31.317623288573436</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="6"/>
+        <v>23.430831057087808</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="6"/>
+        <v>18.106048240263348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73">
+        <f>B71/$A$75</f>
+        <v>0.78284994407984787</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:D73" si="7">C71/$A$75</f>
+        <v>0.89159127465420163</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="7"/>
+        <v>0.95337620632123377</v>
+      </c>
+      <c r="E73">
+        <f>E71/$A$75</f>
+        <v>1.0031083688910802</v>
+      </c>
+      <c r="F73">
+        <f>F71/$A$76</f>
+        <v>1.2782703383091198</v>
+      </c>
+      <c r="G73">
+        <f>G71/$A$76</f>
+        <v>0.95636045130970648</v>
+      </c>
+      <c r="H73">
+        <f>H71/$A$76</f>
+        <v>0.73902237715360586</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ref="I73:Z73" si="8">I71/$A$75</f>
+        <v>0.78284994407984787</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="8"/>
+        <v>0.89159127465420152</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="8"/>
+        <v>0.95337620632123388</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="8"/>
+        <v>1.0031083688910805</v>
+      </c>
+      <c r="M73">
+        <f t="shared" ref="M73:O73" si="9">M71/$A$76</f>
+        <v>1.2782703383091198</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="9"/>
+        <v>0.95636045130970626</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="9"/>
+        <v>0.73902237715360586</v>
+      </c>
+      <c r="P73">
+        <f t="shared" ref="P73" si="10">P71/$A$75</f>
+        <v>0.78284994407984798</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="8"/>
+        <v>0.89159127465420163</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="8"/>
+        <v>0.95337620632123365</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="8"/>
+        <v>1.0031083688910802</v>
+      </c>
+      <c r="T73">
+        <f t="shared" ref="T73:V73" si="11">T71/$A$76</f>
+        <v>1.2782703383091198</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="11"/>
+        <v>0.95636045130970648</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="11"/>
+        <v>0.73902237715360608</v>
+      </c>
+      <c r="W73">
+        <f t="shared" ref="W73" si="12">W71/$A$75</f>
+        <v>0.78284994407984787</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="8"/>
+        <v>0.89159127465420152</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="8"/>
+        <v>0.95337620632123388</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="8"/>
+        <v>1.0031083688910802</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" ref="AA73:AC73" si="13">AA71/$A$76</f>
+        <v>1.2782703383091198</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="13"/>
+        <v>0.95636045130970648</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="13"/>
+        <v>0.73902237715360608</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
+      <c r="AZ73">
+        <v>0</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>0</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
+      <c r="AZ74">
+        <v>0</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
+      <c r="BC74">
+        <v>0</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" t="s">
+        <v>220</v>
+      </c>
+      <c r="G78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C79" s="72">
+        <f>(SUM(B73:E73)+SUM(I73:L73)+SUM(P73:S73)+SUM(W73:Z73))/16</f>
+        <v>0.90773144848659082</v>
+      </c>
+      <c r="D79" s="72">
+        <f>(SUM(F73:H73)+SUM(M73:O73)+SUM(T73:V73)+SUM(AA73:AC73))/12</f>
+        <v>0.99121772225747751</v>
+      </c>
+      <c r="E79" s="72">
+        <f>C79*16/28+D79*12/28</f>
+        <v>0.94351128010268503</v>
+      </c>
+      <c r="G79">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" t="s">
+        <v>223</v>
+      </c>
+      <c r="E83" t="s">
+        <v>218</v>
+      </c>
+      <c r="F83" t="s">
+        <v>219</v>
+      </c>
+      <c r="G83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84">
+        <v>30</v>
+      </c>
+      <c r="C84">
+        <v>24.5</v>
+      </c>
+      <c r="E84" s="73">
+        <v>0.90773144848659082</v>
+      </c>
+      <c r="F84" s="73">
+        <v>0.99121772225747751</v>
+      </c>
+      <c r="G84" s="73">
+        <v>0.94351128010268503</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85">
+        <v>14.5</v>
+      </c>
+      <c r="C85">
+        <v>10.8</v>
+      </c>
+      <c r="E85" s="73">
+        <v>0.90609059727599051</v>
+      </c>
+      <c r="F85" s="73">
+        <v>0.99257810333156848</v>
+      </c>
+      <c r="G85" s="73">
+        <v>0.94315667129980962</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>227</v>
+      </c>
+      <c r="B86">
+        <v>15.5</v>
+      </c>
+      <c r="C86">
+        <v>13.7</v>
+      </c>
+      <c r="E86" s="73">
+        <v>0.90926643832876541</v>
+      </c>
+      <c r="F86" s="73">
+        <v>0.99014530506038367</v>
+      </c>
+      <c r="G86" s="73">
+        <v>0.94392880978517324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B32858-A41B-374D-8EC6-591FD4EFEE95}">
+  <dimension ref="A1:BH86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="49" max="49" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="63">
+        <v>0.93059936908517349</v>
+      </c>
+      <c r="C2" s="51">
+        <v>0.48895899053627762</v>
+      </c>
+      <c r="D2" s="51">
+        <v>0</v>
+      </c>
+      <c r="E2" s="51">
+        <v>0</v>
+      </c>
+      <c r="F2" s="51">
+        <v>0</v>
+      </c>
+      <c r="G2" s="51">
+        <v>0</v>
+      </c>
+      <c r="H2" s="51">
+        <v>0</v>
+      </c>
+      <c r="I2" s="51">
+        <v>0</v>
+      </c>
+      <c r="J2" s="51">
+        <v>0</v>
+      </c>
+      <c r="K2" s="51">
+        <v>0</v>
+      </c>
+      <c r="L2" s="51">
+        <v>0</v>
+      </c>
+      <c r="M2" s="51">
+        <v>0</v>
+      </c>
+      <c r="N2" s="51">
+        <v>0</v>
+      </c>
+      <c r="O2" s="51">
+        <v>0</v>
+      </c>
+      <c r="P2" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="51">
+        <v>0</v>
+      </c>
+      <c r="R2" s="51">
+        <v>0</v>
+      </c>
+      <c r="S2" s="51">
+        <v>0</v>
+      </c>
+      <c r="T2" s="51">
+        <v>0</v>
+      </c>
+      <c r="U2" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="53">
+        <v>6.9825436408977551E-2</v>
+      </c>
+      <c r="C3" s="54">
+        <v>2.7431421446384038E-2</v>
+      </c>
+      <c r="D3" s="54">
+        <v>0</v>
+      </c>
+      <c r="E3" s="54">
+        <v>0</v>
+      </c>
+      <c r="F3" s="54">
+        <v>0</v>
+      </c>
+      <c r="G3" s="54">
+        <v>0</v>
+      </c>
+      <c r="H3" s="54">
+        <v>0</v>
+      </c>
+      <c r="I3" s="54">
+        <v>0</v>
+      </c>
+      <c r="J3" s="54">
+        <v>0</v>
+      </c>
+      <c r="K3" s="54">
+        <v>0</v>
+      </c>
+      <c r="L3" s="54">
+        <v>0</v>
+      </c>
+      <c r="M3" s="54">
+        <v>0</v>
+      </c>
+      <c r="N3" s="54">
+        <v>0</v>
+      </c>
+      <c r="O3" s="54">
+        <v>0</v>
+      </c>
+      <c r="P3" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>0</v>
+      </c>
+      <c r="R3" s="54">
+        <v>0</v>
+      </c>
+      <c r="S3" s="54">
+        <v>0</v>
+      </c>
+      <c r="T3" s="54">
+        <v>0</v>
+      </c>
+      <c r="U3" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="53">
+        <v>0.77956989247311825</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0.43548387096774194</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0</v>
+      </c>
+      <c r="E4" s="54">
+        <v>0</v>
+      </c>
+      <c r="F4" s="54">
+        <v>0</v>
+      </c>
+      <c r="G4" s="54">
+        <v>0</v>
+      </c>
+      <c r="H4" s="54">
+        <v>0</v>
+      </c>
+      <c r="I4" s="54">
+        <v>0</v>
+      </c>
+      <c r="J4" s="54">
+        <v>0</v>
+      </c>
+      <c r="K4" s="54">
+        <v>0</v>
+      </c>
+      <c r="L4" s="54">
+        <v>0</v>
+      </c>
+      <c r="M4" s="54">
+        <v>0</v>
+      </c>
+      <c r="N4" s="54">
+        <v>0</v>
+      </c>
+      <c r="O4" s="54">
+        <v>0</v>
+      </c>
+      <c r="P4" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>0</v>
+      </c>
+      <c r="R4" s="54">
+        <v>0</v>
+      </c>
+      <c r="S4" s="54">
+        <v>0</v>
+      </c>
+      <c r="T4" s="54">
+        <v>0</v>
+      </c>
+      <c r="U4" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="53">
+        <v>7.5235109717868343E-2</v>
+      </c>
+      <c r="C5" s="54">
+        <v>2.1943573667711599E-2</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0</v>
+      </c>
+      <c r="E5" s="54">
+        <v>0</v>
+      </c>
+      <c r="F5" s="54">
+        <v>0</v>
+      </c>
+      <c r="G5" s="54">
+        <v>0</v>
+      </c>
+      <c r="H5" s="54">
+        <v>0</v>
+      </c>
+      <c r="I5" s="54">
+        <v>0</v>
+      </c>
+      <c r="J5" s="54">
+        <v>0</v>
+      </c>
+      <c r="K5" s="54">
+        <v>0</v>
+      </c>
+      <c r="L5" s="54">
+        <v>0</v>
+      </c>
+      <c r="M5" s="54">
+        <v>0</v>
+      </c>
+      <c r="N5" s="54">
+        <v>0</v>
+      </c>
+      <c r="O5" s="54">
+        <v>0</v>
+      </c>
+      <c r="P5" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="54">
+        <v>0</v>
+      </c>
+      <c r="R5" s="54">
+        <v>0</v>
+      </c>
+      <c r="S5" s="54">
+        <v>0</v>
+      </c>
+      <c r="T5" s="54">
+        <v>0</v>
+      </c>
+      <c r="U5" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="53">
+        <v>0.87931034482758619</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0.46551724137931033</v>
+      </c>
+      <c r="D6" s="54">
+        <v>0</v>
+      </c>
+      <c r="E6" s="54">
+        <v>0</v>
+      </c>
+      <c r="F6" s="54">
+        <v>0</v>
+      </c>
+      <c r="G6" s="54">
+        <v>0</v>
+      </c>
+      <c r="H6" s="54">
+        <v>0</v>
+      </c>
+      <c r="I6" s="54">
+        <v>0</v>
+      </c>
+      <c r="J6" s="54">
+        <v>0</v>
+      </c>
+      <c r="K6" s="54">
+        <v>0</v>
+      </c>
+      <c r="L6" s="54">
+        <v>0</v>
+      </c>
+      <c r="M6" s="54">
+        <v>0</v>
+      </c>
+      <c r="N6" s="54">
+        <v>0</v>
+      </c>
+      <c r="O6" s="54">
+        <v>0</v>
+      </c>
+      <c r="P6" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="54">
+        <v>0</v>
+      </c>
+      <c r="R6" s="54">
+        <v>0</v>
+      </c>
+      <c r="S6" s="54">
+        <v>0</v>
+      </c>
+      <c r="T6" s="54">
+        <v>0</v>
+      </c>
+      <c r="U6" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="53">
+        <v>0.10580455547391623</v>
+      </c>
+      <c r="C7" s="54">
+        <v>5.0698016164584865E-2</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0</v>
+      </c>
+      <c r="E7" s="54">
+        <v>0</v>
+      </c>
+      <c r="F7" s="54">
+        <v>0</v>
+      </c>
+      <c r="G7" s="54">
+        <v>0</v>
+      </c>
+      <c r="H7" s="54">
+        <v>0</v>
+      </c>
+      <c r="I7" s="54">
+        <v>0</v>
+      </c>
+      <c r="J7" s="54">
+        <v>0</v>
+      </c>
+      <c r="K7" s="54">
+        <v>0</v>
+      </c>
+      <c r="L7" s="54">
+        <v>0</v>
+      </c>
+      <c r="M7" s="54">
+        <v>0</v>
+      </c>
+      <c r="N7" s="54">
+        <v>0</v>
+      </c>
+      <c r="O7" s="54">
+        <v>0</v>
+      </c>
+      <c r="P7" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="54">
+        <v>0</v>
+      </c>
+      <c r="R7" s="54">
+        <v>0</v>
+      </c>
+      <c r="S7" s="54">
+        <v>0</v>
+      </c>
+      <c r="T7" s="54">
+        <v>0</v>
+      </c>
+      <c r="U7" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="53">
+        <v>6.1224489795918366E-2</v>
+      </c>
+      <c r="C8" s="54">
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="D8" s="54">
+        <v>0</v>
+      </c>
+      <c r="E8" s="54">
+        <v>0</v>
+      </c>
+      <c r="F8" s="54">
+        <v>0</v>
+      </c>
+      <c r="G8" s="54">
+        <v>0</v>
+      </c>
+      <c r="H8" s="54">
+        <v>0</v>
+      </c>
+      <c r="I8" s="54">
+        <v>0</v>
+      </c>
+      <c r="J8" s="54">
+        <v>0</v>
+      </c>
+      <c r="K8" s="54">
+        <v>0</v>
+      </c>
+      <c r="L8" s="54">
+        <v>0</v>
+      </c>
+      <c r="M8" s="54">
+        <v>0</v>
+      </c>
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="54">
+        <v>0</v>
+      </c>
+      <c r="P8" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="54">
+        <v>0</v>
+      </c>
+      <c r="R8" s="54">
+        <v>0</v>
+      </c>
+      <c r="S8" s="54">
+        <v>0</v>
+      </c>
+      <c r="T8" s="54">
+        <v>0</v>
+      </c>
+      <c r="U8" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="53">
+        <v>4.0983606557377046E-2</v>
+      </c>
+      <c r="C9" s="54">
+        <v>2.2950819672131147E-2</v>
+      </c>
+      <c r="D9" s="54">
+        <v>0</v>
+      </c>
+      <c r="E9" s="54">
+        <v>0</v>
+      </c>
+      <c r="F9" s="54">
+        <v>0</v>
+      </c>
+      <c r="G9" s="54">
+        <v>0</v>
+      </c>
+      <c r="H9" s="54">
+        <v>0</v>
+      </c>
+      <c r="I9" s="54">
+        <v>0</v>
+      </c>
+      <c r="J9" s="54">
+        <v>0</v>
+      </c>
+      <c r="K9" s="54">
+        <v>0</v>
+      </c>
+      <c r="L9" s="54">
+        <v>0</v>
+      </c>
+      <c r="M9" s="54">
+        <v>0</v>
+      </c>
+      <c r="N9" s="54">
+        <v>0</v>
+      </c>
+      <c r="O9" s="54">
+        <v>0</v>
+      </c>
+      <c r="P9" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="54">
+        <v>0</v>
+      </c>
+      <c r="R9" s="54">
+        <v>0</v>
+      </c>
+      <c r="S9" s="54">
+        <v>0</v>
+      </c>
+      <c r="T9" s="54">
+        <v>0</v>
+      </c>
+      <c r="U9" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="56">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="C10" s="57">
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="D10" s="57">
+        <v>0</v>
+      </c>
+      <c r="E10" s="57">
+        <v>0</v>
+      </c>
+      <c r="F10" s="57">
+        <v>0</v>
+      </c>
+      <c r="G10" s="57">
+        <v>0</v>
+      </c>
+      <c r="H10" s="57">
+        <v>0</v>
+      </c>
+      <c r="I10" s="57">
+        <v>0</v>
+      </c>
+      <c r="J10" s="57">
+        <v>0</v>
+      </c>
+      <c r="K10" s="57">
+        <v>0</v>
+      </c>
+      <c r="L10" s="57">
+        <v>0</v>
+      </c>
+      <c r="M10" s="57">
+        <v>0</v>
+      </c>
+      <c r="N10" s="57">
+        <v>0</v>
+      </c>
+      <c r="O10" s="57">
+        <v>0</v>
+      </c>
+      <c r="P10" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="57">
+        <v>0</v>
+      </c>
+      <c r="R10" s="57">
+        <v>0</v>
+      </c>
+      <c r="S10" s="57">
+        <v>0</v>
+      </c>
+      <c r="T10" s="57">
+        <v>0</v>
+      </c>
+      <c r="U10" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="64"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="W33" t="s">
+        <v>140</v>
+      </c>
+      <c r="X33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B2*$X34</f>
+        <v>1.2097791798107256</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" ref="C34:U34" si="0">C2*$X34</f>
+        <v>0.63564668769716093</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="47">
+        <v>26</v>
+      </c>
+      <c r="X34">
+        <f>W34/20</f>
+        <v>1.3</v>
+      </c>
+      <c r="AA34" s="47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" ref="B35:U42" si="1">B3*$X35</f>
+        <v>0.11870324189526184</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6633416458852862E-2</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="60">
+        <v>34</v>
+      </c>
+      <c r="X35">
+        <f t="shared" ref="X35:X42" si="2">W35/20</f>
+        <v>1.7</v>
+      </c>
+      <c r="AA35" s="60">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="1"/>
+        <v>0.62365591397849462</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34838709677419355</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="60">
+        <v>16</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA36" s="60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7805642633228843E-2</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8526645768025081E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="60">
+        <v>26</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="AA37" s="60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="60">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="60">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="60">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="60">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="60">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="48">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="65">
+        <f>SUM(B34:B42)</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="C44" s="66">
+        <f t="shared" ref="C44:U44" si="3">SUM(C34:C42)</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="D44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" t="s">
+        <v>148</v>
+      </c>
+      <c r="H47" t="s">
+        <v>149</v>
+      </c>
+      <c r="I47" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" t="s">
+        <v>144</v>
+      </c>
+      <c r="K47" t="s">
+        <v>145</v>
+      </c>
+      <c r="L47" t="s">
+        <v>146</v>
+      </c>
+      <c r="M47" t="s">
+        <v>147</v>
+      </c>
+      <c r="N47" t="s">
+        <v>148</v>
+      </c>
+      <c r="O47" t="s">
+        <v>149</v>
+      </c>
+      <c r="P47" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>144</v>
+      </c>
+      <c r="R47" t="s">
+        <v>145</v>
+      </c>
+      <c r="S47" t="s">
+        <v>146</v>
+      </c>
+      <c r="T47" t="s">
+        <v>147</v>
+      </c>
+      <c r="U47" t="s">
+        <v>148</v>
+      </c>
+      <c r="V47" t="s">
+        <v>149</v>
+      </c>
+      <c r="W47" t="s">
+        <v>143</v>
+      </c>
+      <c r="X47" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC47" s="68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>11</v>
+      </c>
+      <c r="M48">
+        <v>12</v>
+      </c>
+      <c r="N48">
+        <v>13</v>
+      </c>
+      <c r="O48">
+        <v>14</v>
+      </c>
+      <c r="P48">
+        <v>15</v>
+      </c>
+      <c r="Q48">
+        <v>16</v>
+      </c>
+      <c r="R48">
+        <v>17</v>
+      </c>
+      <c r="S48">
+        <v>18</v>
+      </c>
+      <c r="T48">
+        <v>19</v>
+      </c>
+      <c r="U48">
+        <v>20</v>
+      </c>
+      <c r="V48">
+        <v>21</v>
+      </c>
+      <c r="W48">
+        <v>22</v>
+      </c>
+      <c r="X48">
+        <v>23</v>
+      </c>
+      <c r="Y48">
+        <v>24</v>
+      </c>
+      <c r="Z48">
+        <v>25</v>
+      </c>
+      <c r="AA48">
+        <v>26</v>
+      </c>
+      <c r="AB48">
+        <v>27</v>
+      </c>
+      <c r="AC48" s="68">
+        <v>28</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48">
+        <v>2</v>
+      </c>
+      <c r="AI48">
+        <v>3</v>
+      </c>
+      <c r="AJ48">
+        <v>4</v>
+      </c>
+      <c r="AK48">
+        <v>5</v>
+      </c>
+      <c r="AL48">
+        <v>6</v>
+      </c>
+      <c r="AM48">
+        <v>7</v>
+      </c>
+      <c r="AN48">
+        <v>8</v>
+      </c>
+      <c r="AO48">
+        <v>9</v>
+      </c>
+      <c r="AP48">
+        <v>10</v>
+      </c>
+      <c r="AQ48">
+        <v>11</v>
+      </c>
+      <c r="AR48">
+        <v>12</v>
+      </c>
+      <c r="AS48">
+        <v>13</v>
+      </c>
+      <c r="AT48">
+        <v>14</v>
+      </c>
+      <c r="AU48">
+        <v>15</v>
+      </c>
+      <c r="AV48">
+        <v>16</v>
+      </c>
+      <c r="AW48">
+        <v>17</v>
+      </c>
+      <c r="AX48">
+        <v>18</v>
+      </c>
+      <c r="AY48">
+        <v>19</v>
+      </c>
+      <c r="AZ48">
+        <v>20</v>
+      </c>
+      <c r="BA48">
+        <v>21</v>
+      </c>
+      <c r="BB48">
+        <v>22</v>
+      </c>
+      <c r="BC48">
+        <v>23</v>
+      </c>
+      <c r="BD48">
+        <v>24</v>
+      </c>
+      <c r="BE48">
+        <v>25</v>
+      </c>
+      <c r="BF48">
+        <v>26</v>
+      </c>
+      <c r="BG48">
+        <v>27</v>
+      </c>
+      <c r="BH48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="C49">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="D49">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="68"/>
+    </row>
+    <row r="50" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="D50">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="E50">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="68"/>
+    </row>
+    <row r="51" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="E51">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="F51">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="68"/>
+    </row>
+    <row r="52" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="F52">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="G52">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="68"/>
+    </row>
+    <row r="53" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="G53">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="H53">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="68"/>
+    </row>
+    <row r="54" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="J54">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="K54">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="68"/>
+    </row>
+    <row r="55" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="K55">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="L55">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="68">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="L56">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="M56">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="68">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="M57">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="N57">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="68">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="N58">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="O58">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="68">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="P59">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="Q59">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="R59">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="68">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="Q60">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="R60">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="S60">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="68">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AM60">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="R61">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="S61">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="T61">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="68">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AM61">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="S62">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="T62">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="U62">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC62" s="68">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="T63">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="U63">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="V63">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="68">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="W64">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="X64">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="Y64">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="68">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AQ64">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AS64">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="X65">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="Y65">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="Z65">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="68">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="Y66">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="Z66">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="AA66">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="68">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AS66">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AT66">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AU66">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="Z67">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="AA67">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="AB67">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="AC67" s="68">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="AS67">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AT67">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AU67">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="AA68">
+        <f>$B$44</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="AB68">
+        <f>$C$44</f>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="AC68" s="68">
+        <f>$D$44</f>
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <f>$E$44</f>
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <f>$F$44</f>
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <f>$G$44</f>
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <f>$H$44</f>
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <f>$I$44</f>
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <f>$J$44</f>
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <f>$K$44</f>
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <f>$L$44</f>
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <f>$M$44</f>
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <f>$N$44</f>
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <f>$O$44</f>
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <f>$P$44</f>
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <f>$Q$44</f>
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <f>$R$44</f>
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <f>$S$44</f>
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <f>$T$44</f>
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <f>$U$44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69">
+        <f>AG70</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:AC69" si="4">AH70</f>
+        <v>0</v>
+      </c>
+      <c r="D69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG70" s="69">
+        <f>SUM(AG49:AG68)</f>
+        <v>0</v>
+      </c>
+      <c r="AH70" s="70">
+        <f t="shared" ref="AH70:AZ70" si="5">SUM(AH49:AH68)</f>
+        <v>0</v>
+      </c>
+      <c r="AI70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AL70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AP70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AR70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AS70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AT70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AU70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AV70" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AW70" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AX70" s="70">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AY70" s="70">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AZ70" s="70">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA70" s="70">
@@ -11171,186 +15735,368 @@
       <c r="BD70" s="70">
         <v>0</v>
       </c>
-      <c r="BE70" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="24:57" x14ac:dyDescent="0.2">
-      <c r="AC73" t="s">
+      <c r="BE70" s="70">
+        <v>0</v>
+      </c>
+      <c r="BF70" s="70">
+        <v>0</v>
+      </c>
+      <c r="BG70" s="70">
+        <v>0</v>
+      </c>
+      <c r="BH70" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71">
+        <f>SUM(B49:B69)</f>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:AC71" si="6">SUM(C49:C69)</f>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="6"/>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="6"/>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="6"/>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="R71">
+        <f>SUM(R49:R69)</f>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="6"/>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="6"/>
+        <v>2.0499439783177111</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="6"/>
+        <v>3.1091378250159436</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="6"/>
+        <v>1.0591938466982325</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73">
+        <f>B71/$A$75</f>
+        <v>0.64060749322428467</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:D73" si="7">C71/$A$75</f>
+        <v>0.97160557031748229</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="7"/>
+        <v>0.97160557031748229</v>
+      </c>
+      <c r="E73">
+        <f>E71/$A$75</f>
+        <v>0.97160557031748229</v>
+      </c>
+      <c r="F73">
+        <f>F71/$A$76</f>
+        <v>1.8289046029505551</v>
+      </c>
+      <c r="G73">
+        <f>G71/$A$76</f>
+        <v>0.6230552039401368</v>
+      </c>
+      <c r="H73">
+        <f>H71/$A$76</f>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ref="I73:Z73" si="8">I71/$A$75</f>
+        <v>0.64060749322428467</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="8"/>
+        <v>0.97160557031748229</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="8"/>
+        <v>0.97160557031748229</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="8"/>
+        <v>0.97160557031748229</v>
+      </c>
+      <c r="M73">
+        <f t="shared" ref="M73:O73" si="9">M71/$A$76</f>
+        <v>1.8289046029505551</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="9"/>
+        <v>0.6230552039401368</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f t="shared" ref="P73" si="10">P71/$A$75</f>
+        <v>0.64060749322428467</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="8"/>
+        <v>0.97160557031748229</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="8"/>
+        <v>0.97160557031748229</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="8"/>
+        <v>0.97160557031748229</v>
+      </c>
+      <c r="T73">
+        <f t="shared" ref="T73:V73" si="11">T71/$A$76</f>
+        <v>1.8289046029505551</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="11"/>
+        <v>0.6230552039401368</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <f t="shared" ref="W73" si="12">W71/$A$75</f>
+        <v>0.64060749322428467</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="8"/>
+        <v>0.97160557031748229</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="8"/>
+        <v>0.97160557031748229</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="8"/>
+        <v>0.97160557031748229</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" ref="AA73:AC73" si="13">AA71/$A$76</f>
+        <v>1.8289046029505551</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="13"/>
+        <v>0.6230552039401368</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C79" s="72">
+        <f>(SUM(B73:E73)+SUM(I73:L73)+SUM(P73:S73)+SUM(W73:Z73))/16</f>
+        <v>0.88885605104418297</v>
+      </c>
+      <c r="D79" s="72">
+        <f>(SUM(F73:H73)+SUM(M73:O73)+SUM(T73:V73)+SUM(AA73:AC73))/12</f>
+        <v>0.81731993563023064</v>
+      </c>
+      <c r="E79" s="72">
+        <f>C79*16/28+D79*12/28</f>
+        <v>0.85819771586677485</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" t="s">
+        <v>223</v>
+      </c>
+      <c r="E83" t="s">
+        <v>218</v>
+      </c>
+      <c r="F83" t="s">
+        <v>219</v>
+      </c>
+      <c r="G83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84">
+        <v>5.5</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="E84" s="74">
+        <v>0.883181787525257</v>
+      </c>
+      <c r="F84" s="74">
+        <v>0.79034021931624554</v>
+      </c>
+      <c r="G84" s="74">
+        <v>0.84339254400710928</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>172</v>
       </c>
-      <c r="AD73" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL73" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN73" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO73" t="s">
-        <v>185</v>
-      </c>
-      <c r="AP73" t="s">
-        <v>186</v>
-      </c>
-      <c r="AQ73" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR73" t="s">
-        <v>188</v>
-      </c>
-      <c r="AS73" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT73" t="s">
-        <v>190</v>
-      </c>
-      <c r="AU73">
-        <v>0</v>
-      </c>
-      <c r="AV73">
-        <v>0</v>
-      </c>
-      <c r="AW73">
-        <v>0</v>
-      </c>
-      <c r="AX73">
-        <v>0</v>
-      </c>
-      <c r="AY73">
-        <v>0</v>
-      </c>
-      <c r="AZ73">
-        <v>0</v>
-      </c>
-      <c r="BA73">
-        <v>0</v>
-      </c>
-      <c r="BB73">
-        <v>0</v>
-      </c>
-      <c r="BC73">
-        <v>0</v>
-      </c>
-      <c r="BD73">
-        <v>0</v>
-      </c>
-      <c r="BE73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="24:57" x14ac:dyDescent="0.2">
-      <c r="AC74" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI74" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ74" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK74" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL74" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM74" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN74" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO74" t="s">
-        <v>202</v>
-      </c>
-      <c r="AP74" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ74" t="s">
-        <v>204</v>
-      </c>
-      <c r="AR74" t="s">
-        <v>205</v>
-      </c>
-      <c r="AS74" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT74" t="s">
-        <v>207</v>
-      </c>
-      <c r="AU74">
-        <v>0</v>
-      </c>
-      <c r="AV74">
-        <v>0</v>
-      </c>
-      <c r="AW74">
-        <v>0</v>
-      </c>
-      <c r="AX74">
-        <v>0</v>
-      </c>
-      <c r="AY74">
-        <v>0</v>
-      </c>
-      <c r="AZ74">
-        <v>0</v>
-      </c>
-      <c r="BA74">
-        <v>0</v>
-      </c>
-      <c r="BB74">
-        <v>0</v>
-      </c>
-      <c r="BC74">
-        <v>0</v>
-      </c>
-      <c r="BD74">
-        <v>0</v>
-      </c>
-      <c r="BE74">
-        <v>0</v>
+      <c r="B85">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C85">
+        <v>1.3</v>
+      </c>
+      <c r="E85" s="73">
+        <v>0.8752871600206642</v>
+      </c>
+      <c r="F85" s="73">
+        <v>0.75505905182872668</v>
+      </c>
+      <c r="G85" s="73">
+        <v>0.82376082793840522</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>225</v>
+      </c>
+      <c r="B86">
+        <v>3.2</v>
+      </c>
+      <c r="C86">
+        <v>1.7</v>
+      </c>
+      <c r="E86" s="73">
+        <v>0.88885605104418297</v>
+      </c>
+      <c r="F86" s="73">
+        <v>0.81731993563023064</v>
+      </c>
+      <c r="G86" s="73">
+        <v>0.85819771586677485</v>
       </c>
     </row>
   </sheetData>
@@ -11360,6 +16106,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -11531,7 +16283,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11540,13 +16292,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11564,26 +16326,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input_output/model_input_9groups.xlsx
+++ b/input_output/model_input_9groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/Master V22/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A868A1-78F3-6A41-890F-1D8A6AE09FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AEC19C-C1E4-294E-A60C-1555F0395F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="242">
   <si>
     <t>Wards</t>
   </si>
@@ -726,14 +726,54 @@
   </si>
   <si>
     <t>5 groups</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuning </t>
+  </si>
+  <si>
+    <t>curent</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>9  groups</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1055,7 +1095,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1133,6 +1173,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent4" xfId="1" builtinId="42"/>
@@ -1454,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DG61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1802,88 +1843,88 @@
         <v>33</v>
       </c>
       <c r="I2" s="27">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="J2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="K2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="L2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="M2" s="28">
-        <v>24.5</v>
+        <v>28.9</v>
       </c>
       <c r="N2" s="28">
-        <v>24.5</v>
+        <v>28.9</v>
       </c>
       <c r="O2" s="28">
-        <v>24.5</v>
+        <v>28.9</v>
       </c>
       <c r="P2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="Q2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="R2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="S2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="T2" s="28">
-        <v>24.5</v>
+        <v>28.9</v>
       </c>
       <c r="U2" s="28">
-        <v>24.5</v>
+        <v>28.9</v>
       </c>
       <c r="V2" s="28">
-        <v>24.5</v>
+        <v>28.9</v>
       </c>
       <c r="W2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="X2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="Y2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="Z2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="AA2" s="28">
-        <v>24.5</v>
+        <v>28.9</v>
       </c>
       <c r="AB2" s="28">
-        <v>24.5</v>
+        <v>28.9</v>
       </c>
       <c r="AC2" s="28">
-        <v>24.5</v>
+        <v>28.9</v>
       </c>
       <c r="AD2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="AE2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="AF2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="AG2" s="28">
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="AH2" s="28">
-        <v>24.5</v>
+        <v>28.9</v>
       </c>
       <c r="AI2" s="28">
-        <v>24.5</v>
+        <v>28.9</v>
       </c>
       <c r="AJ2" s="28">
-        <v>24.5</v>
+        <v>28.9</v>
       </c>
       <c r="AK2" s="47">
         <v>20</v>
@@ -2103,88 +2144,88 @@
         <v>44</v>
       </c>
       <c r="I3" s="14">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="J3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="K3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="L3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="M3" s="15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N3" s="15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O3" s="15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="Q3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="R3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="S3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="T3" s="15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="U3" s="15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="V3" s="15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="W3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="X3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA3" s="15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AB3" s="15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AC3" s="15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AD3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AG3" s="15">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AH3" s="15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AI3" s="15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AJ3" s="15">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AK3" s="48">
         <v>2</v>
@@ -7507,10 +7548,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667ADA00-9768-9E42-A64A-5CCA52F9FA00}">
-  <dimension ref="A1:BH86"/>
+  <dimension ref="A1:BH144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11886,7 +11927,1978 @@
         <v>0.94392880978517324</v>
       </c>
     </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" t="s">
+        <v>229</v>
+      </c>
+      <c r="E99" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" t="s">
+        <v>33</v>
+      </c>
+      <c r="G100" t="s">
+        <v>234</v>
+      </c>
+      <c r="H100">
+        <f>$E$101</f>
+        <v>19.5</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ref="I100:K103" si="14">$E$101</f>
+        <v>19.5</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="14"/>
+        <v>19.5</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="14"/>
+        <v>19.5</v>
+      </c>
+      <c r="L100">
+        <f>$E$102</f>
+        <v>15.9</v>
+      </c>
+      <c r="M100">
+        <f t="shared" ref="M100:N103" si="15">$E$102</f>
+        <v>15.9</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="15"/>
+        <v>15.9</v>
+      </c>
+      <c r="P100" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>233</v>
+      </c>
+      <c r="R100" t="s">
+        <v>233</v>
+      </c>
+      <c r="S100" t="s">
+        <v>233</v>
+      </c>
+      <c r="T100" t="s">
+        <v>236</v>
+      </c>
+      <c r="U100" t="s">
+        <v>236</v>
+      </c>
+      <c r="V100" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101">
+        <v>30</v>
+      </c>
+      <c r="C101">
+        <v>0.65</v>
+      </c>
+      <c r="E101">
+        <f>ROUND(B101*C101,1)</f>
+        <v>19.5</v>
+      </c>
+      <c r="H101">
+        <f>$E$101</f>
+        <v>19.5</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="14"/>
+        <v>19.5</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="14"/>
+        <v>19.5</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="14"/>
+        <v>19.5</v>
+      </c>
+      <c r="L101">
+        <f>$E$102</f>
+        <v>15.9</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="15"/>
+        <v>15.9</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="15"/>
+        <v>15.9</v>
+      </c>
+      <c r="P101" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>233</v>
+      </c>
+      <c r="R101" t="s">
+        <v>233</v>
+      </c>
+      <c r="S101" t="s">
+        <v>233</v>
+      </c>
+      <c r="T101" t="s">
+        <v>236</v>
+      </c>
+      <c r="U101" t="s">
+        <v>236</v>
+      </c>
+      <c r="V101" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102">
+        <v>24.5</v>
+      </c>
+      <c r="C102">
+        <f>C101</f>
+        <v>0.65</v>
+      </c>
+      <c r="E102">
+        <f>ROUND(B102*C102,1)</f>
+        <v>15.9</v>
+      </c>
+      <c r="H102">
+        <f>$E$101</f>
+        <v>19.5</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="14"/>
+        <v>19.5</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="14"/>
+        <v>19.5</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="14"/>
+        <v>19.5</v>
+      </c>
+      <c r="L102">
+        <f>$E$102</f>
+        <v>15.9</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="15"/>
+        <v>15.9</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="15"/>
+        <v>15.9</v>
+      </c>
+      <c r="P102" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>233</v>
+      </c>
+      <c r="R102" t="s">
+        <v>233</v>
+      </c>
+      <c r="S102" t="s">
+        <v>233</v>
+      </c>
+      <c r="T102" t="s">
+        <v>236</v>
+      </c>
+      <c r="U102" t="s">
+        <v>236</v>
+      </c>
+      <c r="V102" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103">
+        <f>$E$101</f>
+        <v>19.5</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="14"/>
+        <v>19.5</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="14"/>
+        <v>19.5</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="14"/>
+        <v>19.5</v>
+      </c>
+      <c r="L103">
+        <f>$E$102</f>
+        <v>15.9</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="15"/>
+        <v>15.9</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="15"/>
+        <v>15.9</v>
+      </c>
+      <c r="P103" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>233</v>
+      </c>
+      <c r="R103" t="s">
+        <v>233</v>
+      </c>
+      <c r="S103" t="s">
+        <v>233</v>
+      </c>
+      <c r="T103" t="s">
+        <v>236</v>
+      </c>
+      <c r="U103" t="s">
+        <v>236</v>
+      </c>
+      <c r="V103" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104">
+        <v>5.5</v>
+      </c>
+      <c r="C104">
+        <v>0.69</v>
+      </c>
+      <c r="E104">
+        <f>ROUND(B104*C104,1)</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>223</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <f>C104</f>
+        <v>0.69</v>
+      </c>
+      <c r="E105">
+        <f>ROUND(B105*C105,1)</f>
+        <v>2.1</v>
+      </c>
+      <c r="H105">
+        <f>$E$104</f>
+        <v>3.8</v>
+      </c>
+      <c r="I105">
+        <f t="shared" ref="I105:K108" si="16">$E$104</f>
+        <v>3.8</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="16"/>
+        <v>3.8</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="16"/>
+        <v>3.8</v>
+      </c>
+      <c r="L105">
+        <f>$E$105</f>
+        <v>2.1</v>
+      </c>
+      <c r="M105">
+        <f t="shared" ref="M105:N108" si="17">$E$105</f>
+        <v>2.1</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="17"/>
+        <v>2.1</v>
+      </c>
+      <c r="P105" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>241</v>
+      </c>
+      <c r="R105" t="s">
+        <v>241</v>
+      </c>
+      <c r="S105" t="s">
+        <v>241</v>
+      </c>
+      <c r="T105" t="s">
+        <v>240</v>
+      </c>
+      <c r="U105" t="s">
+        <v>240</v>
+      </c>
+      <c r="V105" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <f>$E$104</f>
+        <v>3.8</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="16"/>
+        <v>3.8</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="16"/>
+        <v>3.8</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="16"/>
+        <v>3.8</v>
+      </c>
+      <c r="L106">
+        <f>$E$105</f>
+        <v>2.1</v>
+      </c>
+      <c r="M106">
+        <f>$E$105</f>
+        <v>2.1</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="17"/>
+        <v>2.1</v>
+      </c>
+      <c r="P106" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>241</v>
+      </c>
+      <c r="R106" t="s">
+        <v>241</v>
+      </c>
+      <c r="S106" t="s">
+        <v>241</v>
+      </c>
+      <c r="T106" t="s">
+        <v>240</v>
+      </c>
+      <c r="U106" t="s">
+        <v>240</v>
+      </c>
+      <c r="V106" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <f>$E$104</f>
+        <v>3.8</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="16"/>
+        <v>3.8</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="16"/>
+        <v>3.8</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="16"/>
+        <v>3.8</v>
+      </c>
+      <c r="L107">
+        <f>$E$105</f>
+        <v>2.1</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="17"/>
+        <v>2.1</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="17"/>
+        <v>2.1</v>
+      </c>
+      <c r="P107" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>241</v>
+      </c>
+      <c r="R107" t="s">
+        <v>241</v>
+      </c>
+      <c r="S107" t="s">
+        <v>241</v>
+      </c>
+      <c r="T107" t="s">
+        <v>240</v>
+      </c>
+      <c r="U107" t="s">
+        <v>240</v>
+      </c>
+      <c r="V107" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <f>$E$104</f>
+        <v>3.8</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="16"/>
+        <v>3.8</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="16"/>
+        <v>3.8</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="16"/>
+        <v>3.8</v>
+      </c>
+      <c r="L108">
+        <f>$E$105</f>
+        <v>2.1</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="17"/>
+        <v>2.1</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="17"/>
+        <v>2.1</v>
+      </c>
+      <c r="P108" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>241</v>
+      </c>
+      <c r="R108" t="s">
+        <v>241</v>
+      </c>
+      <c r="S108" t="s">
+        <v>241</v>
+      </c>
+      <c r="T108" t="s">
+        <v>240</v>
+      </c>
+      <c r="U108" t="s">
+        <v>240</v>
+      </c>
+      <c r="V108" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" t="s">
+        <v>229</v>
+      </c>
+      <c r="E113" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" t="s">
+        <v>234</v>
+      </c>
+      <c r="H114" s="75">
+        <f>$E$115</f>
+        <v>15.9</v>
+      </c>
+      <c r="I114" s="75">
+        <f t="shared" ref="I114:K117" si="18">$E$115</f>
+        <v>15.9</v>
+      </c>
+      <c r="J114" s="75">
+        <f t="shared" si="18"/>
+        <v>15.9</v>
+      </c>
+      <c r="K114" s="75">
+        <f>$E$115</f>
+        <v>15.9</v>
+      </c>
+      <c r="L114" s="75">
+        <f>$E$116</f>
+        <v>13</v>
+      </c>
+      <c r="M114" s="75">
+        <f t="shared" ref="M114:N117" si="19">$E$116</f>
+        <v>13</v>
+      </c>
+      <c r="N114" s="75">
+        <f>$E$116</f>
+        <v>13</v>
+      </c>
+      <c r="P114" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q114" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="R114" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="S114" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="T114" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="U114" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="V114" s="75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115">
+        <v>30</v>
+      </c>
+      <c r="C115">
+        <v>0.53</v>
+      </c>
+      <c r="E115">
+        <f>ROUND(B115*C115,1)</f>
+        <v>15.9</v>
+      </c>
+      <c r="H115" s="75">
+        <f t="shared" ref="H115:H117" si="20">$E$115</f>
+        <v>15.9</v>
+      </c>
+      <c r="I115" s="75">
+        <f t="shared" si="18"/>
+        <v>15.9</v>
+      </c>
+      <c r="J115" s="75">
+        <f t="shared" si="18"/>
+        <v>15.9</v>
+      </c>
+      <c r="K115" s="75">
+        <f t="shared" si="18"/>
+        <v>15.9</v>
+      </c>
+      <c r="L115" s="75">
+        <f t="shared" ref="L115:L117" si="21">$E$116</f>
+        <v>13</v>
+      </c>
+      <c r="M115" s="75">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="N115" s="75">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="P115" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q115" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="R115" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="S115" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="T115" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="U115" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="V115" s="75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>223</v>
+      </c>
+      <c r="B116">
+        <v>24.5</v>
+      </c>
+      <c r="C116">
+        <f>C115</f>
+        <v>0.53</v>
+      </c>
+      <c r="E116">
+        <f>ROUND(B116*C116,1)</f>
+        <v>13</v>
+      </c>
+      <c r="H116" s="75">
+        <f t="shared" si="20"/>
+        <v>15.9</v>
+      </c>
+      <c r="I116" s="75">
+        <f t="shared" si="18"/>
+        <v>15.9</v>
+      </c>
+      <c r="J116" s="75">
+        <f t="shared" si="18"/>
+        <v>15.9</v>
+      </c>
+      <c r="K116" s="75">
+        <f t="shared" si="18"/>
+        <v>15.9</v>
+      </c>
+      <c r="L116" s="75">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="M116" s="75">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="N116" s="75">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="P116" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q116" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="R116" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="S116" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="T116" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="U116" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="V116" s="75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="H117" s="75">
+        <f t="shared" si="20"/>
+        <v>15.9</v>
+      </c>
+      <c r="I117" s="75">
+        <f t="shared" si="18"/>
+        <v>15.9</v>
+      </c>
+      <c r="J117" s="75">
+        <f t="shared" si="18"/>
+        <v>15.9</v>
+      </c>
+      <c r="K117" s="75">
+        <f t="shared" si="18"/>
+        <v>15.9</v>
+      </c>
+      <c r="L117" s="75">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="M117" s="75">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="N117" s="75">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="P117" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q117" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="R117" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="S117" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="T117" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="U117" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="V117" s="75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118">
+        <v>5.5</v>
+      </c>
+      <c r="C118">
+        <v>0.5</v>
+      </c>
+      <c r="E118">
+        <f>ROUND(B118*C118,1)</f>
+        <v>2.8</v>
+      </c>
+      <c r="H118" s="75"/>
+      <c r="I118" s="75"/>
+      <c r="J118" s="75"/>
+      <c r="K118" s="75"/>
+      <c r="L118" s="75"/>
+      <c r="M118" s="75"/>
+      <c r="N118" s="75"/>
+      <c r="P118" s="75"/>
+      <c r="Q118" s="75"/>
+      <c r="R118" s="75"/>
+      <c r="S118" s="75"/>
+      <c r="T118" s="75"/>
+      <c r="U118" s="75"/>
+      <c r="V118" s="75"/>
+    </row>
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>223</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <f>C118</f>
+        <v>0.5</v>
+      </c>
+      <c r="E119">
+        <f>ROUND(B119*C119,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H119" s="75">
+        <f>$E$118</f>
+        <v>2.8</v>
+      </c>
+      <c r="I119" s="75">
+        <f>$E$118</f>
+        <v>2.8</v>
+      </c>
+      <c r="J119" s="75">
+        <f t="shared" ref="I119:K122" si="22">$E$118</f>
+        <v>2.8</v>
+      </c>
+      <c r="K119" s="75">
+        <f t="shared" si="22"/>
+        <v>2.8</v>
+      </c>
+      <c r="L119" s="75">
+        <f>$E$119</f>
+        <v>1.5</v>
+      </c>
+      <c r="M119" s="75">
+        <f t="shared" ref="M119:N122" si="23">$E$119</f>
+        <v>1.5</v>
+      </c>
+      <c r="N119" s="75">
+        <f t="shared" si="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="P119" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q119" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="R119" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="S119" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="T119" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="U119" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="V119" s="75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H120" s="75">
+        <f t="shared" ref="H120:H122" si="24">$E$118</f>
+        <v>2.8</v>
+      </c>
+      <c r="I120" s="75">
+        <f t="shared" si="22"/>
+        <v>2.8</v>
+      </c>
+      <c r="J120" s="75">
+        <f t="shared" si="22"/>
+        <v>2.8</v>
+      </c>
+      <c r="K120" s="75">
+        <f t="shared" si="22"/>
+        <v>2.8</v>
+      </c>
+      <c r="L120" s="75">
+        <f t="shared" ref="L120:L122" si="25">$E$119</f>
+        <v>1.5</v>
+      </c>
+      <c r="M120" s="75">
+        <f t="shared" si="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="N120" s="75">
+        <f t="shared" si="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="P120" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q120" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="R120" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="S120" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="T120" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="U120" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="V120" s="75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H121" s="75">
+        <f t="shared" si="24"/>
+        <v>2.8</v>
+      </c>
+      <c r="I121" s="75">
+        <f t="shared" si="22"/>
+        <v>2.8</v>
+      </c>
+      <c r="J121" s="75">
+        <f t="shared" si="22"/>
+        <v>2.8</v>
+      </c>
+      <c r="K121" s="75">
+        <f t="shared" si="22"/>
+        <v>2.8</v>
+      </c>
+      <c r="L121" s="75">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="M121" s="75">
+        <f t="shared" si="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="N121" s="75">
+        <f t="shared" si="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="P121" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q121" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="R121" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="S121" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="T121" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="U121" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="V121" s="75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H122" s="75">
+        <f t="shared" si="24"/>
+        <v>2.8</v>
+      </c>
+      <c r="I122" s="75">
+        <f t="shared" si="22"/>
+        <v>2.8</v>
+      </c>
+      <c r="J122" s="75">
+        <f t="shared" si="22"/>
+        <v>2.8</v>
+      </c>
+      <c r="K122" s="75">
+        <f t="shared" si="22"/>
+        <v>2.8</v>
+      </c>
+      <c r="L122" s="75">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="M122" s="75">
+        <f t="shared" si="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="N122" s="75">
+        <f t="shared" si="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="P122" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q122" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="R122" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="S122" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="T122" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="U122" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="V122" s="75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>3</v>
+      </c>
+      <c r="K124">
+        <v>4</v>
+      </c>
+      <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>6</v>
+      </c>
+      <c r="N124">
+        <v>7</v>
+      </c>
+      <c r="O124">
+        <v>8</v>
+      </c>
+      <c r="P124">
+        <v>9</v>
+      </c>
+      <c r="Q124">
+        <v>10</v>
+      </c>
+      <c r="R124">
+        <v>11</v>
+      </c>
+      <c r="S124">
+        <v>12</v>
+      </c>
+      <c r="T124">
+        <v>13</v>
+      </c>
+      <c r="U124">
+        <v>14</v>
+      </c>
+      <c r="V124">
+        <v>15</v>
+      </c>
+      <c r="W124">
+        <v>16</v>
+      </c>
+      <c r="X124">
+        <v>17</v>
+      </c>
+      <c r="Y124">
+        <v>18</v>
+      </c>
+      <c r="Z124">
+        <v>19</v>
+      </c>
+      <c r="AA124">
+        <v>20</v>
+      </c>
+      <c r="AB124">
+        <v>21</v>
+      </c>
+      <c r="AC124">
+        <v>22</v>
+      </c>
+      <c r="AD124">
+        <v>23</v>
+      </c>
+      <c r="AE124">
+        <v>24</v>
+      </c>
+      <c r="AF124">
+        <v>25</v>
+      </c>
+      <c r="AG124">
+        <v>26</v>
+      </c>
+      <c r="AH124">
+        <v>27</v>
+      </c>
+      <c r="AI124">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>215</v>
+      </c>
+      <c r="H125">
+        <f>H100+H114</f>
+        <v>35.4</v>
+      </c>
+      <c r="I125">
+        <f t="shared" ref="I125:U125" si="26">I100+I114</f>
+        <v>35.4</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="26"/>
+        <v>35.4</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="26"/>
+        <v>35.4</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="26"/>
+        <v>28.9</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="26"/>
+        <v>28.9</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="26"/>
+        <v>28.9</v>
+      </c>
+      <c r="O125">
+        <f>H125</f>
+        <v>35.4</v>
+      </c>
+      <c r="P125">
+        <f t="shared" ref="P125:AI126" si="27">I125</f>
+        <v>35.4</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="27"/>
+        <v>35.4</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="27"/>
+        <v>35.4</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="27"/>
+        <v>28.9</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="27"/>
+        <v>28.9</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="27"/>
+        <v>28.9</v>
+      </c>
+      <c r="V125">
+        <f t="shared" si="27"/>
+        <v>35.4</v>
+      </c>
+      <c r="W125">
+        <f t="shared" si="27"/>
+        <v>35.4</v>
+      </c>
+      <c r="X125">
+        <f t="shared" si="27"/>
+        <v>35.4</v>
+      </c>
+      <c r="Y125">
+        <f t="shared" si="27"/>
+        <v>35.4</v>
+      </c>
+      <c r="Z125">
+        <f t="shared" si="27"/>
+        <v>28.9</v>
+      </c>
+      <c r="AA125">
+        <f t="shared" si="27"/>
+        <v>28.9</v>
+      </c>
+      <c r="AB125">
+        <f t="shared" si="27"/>
+        <v>28.9</v>
+      </c>
+      <c r="AC125">
+        <f t="shared" si="27"/>
+        <v>35.4</v>
+      </c>
+      <c r="AD125">
+        <f t="shared" si="27"/>
+        <v>35.4</v>
+      </c>
+      <c r="AE125">
+        <f t="shared" si="27"/>
+        <v>35.4</v>
+      </c>
+      <c r="AF125">
+        <f t="shared" si="27"/>
+        <v>35.4</v>
+      </c>
+      <c r="AG125">
+        <f t="shared" si="27"/>
+        <v>28.9</v>
+      </c>
+      <c r="AH125">
+        <f t="shared" si="27"/>
+        <v>28.9</v>
+      </c>
+      <c r="AI125">
+        <f t="shared" si="27"/>
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <f>H105+H119</f>
+        <v>6.6</v>
+      </c>
+      <c r="I126">
+        <f t="shared" ref="I126:N126" si="28">I105+I119</f>
+        <v>6.6</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="28"/>
+        <v>6.6</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="28"/>
+        <v>6.6</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="28"/>
+        <v>3.6</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="28"/>
+        <v>3.6</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="28"/>
+        <v>3.6</v>
+      </c>
+      <c r="O126">
+        <f>H126</f>
+        <v>6.6</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="27"/>
+        <v>6.6</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="27"/>
+        <v>6.6</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="27"/>
+        <v>6.6</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="27"/>
+        <v>3.6</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="27"/>
+        <v>3.6</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="27"/>
+        <v>3.6</v>
+      </c>
+      <c r="V126">
+        <f t="shared" si="27"/>
+        <v>6.6</v>
+      </c>
+      <c r="W126">
+        <f t="shared" si="27"/>
+        <v>6.6</v>
+      </c>
+      <c r="X126">
+        <f t="shared" si="27"/>
+        <v>6.6</v>
+      </c>
+      <c r="Y126">
+        <f t="shared" si="27"/>
+        <v>6.6</v>
+      </c>
+      <c r="Z126">
+        <f t="shared" si="27"/>
+        <v>3.6</v>
+      </c>
+      <c r="AA126">
+        <f t="shared" si="27"/>
+        <v>3.6</v>
+      </c>
+      <c r="AB126">
+        <f t="shared" si="27"/>
+        <v>3.6</v>
+      </c>
+      <c r="AC126">
+        <f t="shared" si="27"/>
+        <v>6.6</v>
+      </c>
+      <c r="AD126">
+        <f t="shared" si="27"/>
+        <v>6.6</v>
+      </c>
+      <c r="AE126">
+        <f t="shared" si="27"/>
+        <v>6.6</v>
+      </c>
+      <c r="AF126">
+        <f t="shared" si="27"/>
+        <v>6.6</v>
+      </c>
+      <c r="AG126">
+        <f t="shared" si="27"/>
+        <v>3.6</v>
+      </c>
+      <c r="AH126">
+        <f t="shared" si="27"/>
+        <v>3.6</v>
+      </c>
+      <c r="AI126">
+        <f t="shared" si="27"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>231</v>
+      </c>
+      <c r="C131" t="s">
+        <v>229</v>
+      </c>
+      <c r="E131" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>33</v>
+      </c>
+      <c r="E132" t="s">
+        <v>33</v>
+      </c>
+      <c r="G132" t="s">
+        <v>234</v>
+      </c>
+      <c r="H132">
+        <f>$E$133</f>
+        <v>35.4</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ref="I132:K135" si="29">$E$133</f>
+        <v>35.4</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="29"/>
+        <v>35.4</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="29"/>
+        <v>35.4</v>
+      </c>
+      <c r="L132">
+        <f>$E$134</f>
+        <v>28.91</v>
+      </c>
+      <c r="M132">
+        <f t="shared" ref="M132:N135" si="30">$E$134</f>
+        <v>28.91</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="30"/>
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>222</v>
+      </c>
+      <c r="B133">
+        <v>30</v>
+      </c>
+      <c r="C133">
+        <v>1.18</v>
+      </c>
+      <c r="E133">
+        <f>B133*C133</f>
+        <v>35.4</v>
+      </c>
+      <c r="H133">
+        <f t="shared" ref="H133:H135" si="31">$E$133</f>
+        <v>35.4</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="29"/>
+        <v>35.4</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="29"/>
+        <v>35.4</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="29"/>
+        <v>35.4</v>
+      </c>
+      <c r="L133">
+        <f t="shared" ref="L133:L135" si="32">$E$134</f>
+        <v>28.91</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="30"/>
+        <v>28.91</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="30"/>
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>223</v>
+      </c>
+      <c r="B134">
+        <v>24.5</v>
+      </c>
+      <c r="C134">
+        <f>C133</f>
+        <v>1.18</v>
+      </c>
+      <c r="E134">
+        <f>B134*C134</f>
+        <v>28.91</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="31"/>
+        <v>35.4</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="29"/>
+        <v>35.4</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="29"/>
+        <v>35.4</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="29"/>
+        <v>35.4</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="32"/>
+        <v>28.91</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="30"/>
+        <v>28.91</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="30"/>
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" t="s">
+        <v>44</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="31"/>
+        <v>35.4</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="29"/>
+        <v>35.4</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="29"/>
+        <v>35.4</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="29"/>
+        <v>35.4</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="32"/>
+        <v>28.91</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="30"/>
+        <v>28.91</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="30"/>
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>222</v>
+      </c>
+      <c r="B136">
+        <v>5.5</v>
+      </c>
+      <c r="C136">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E136">
+        <f>B136*C136</f>
+        <v>6.2149999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>223</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <f>C136</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E137">
+        <f>B137*C137</f>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="H137">
+        <f>$E$136</f>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="I137">
+        <f t="shared" ref="I137:K140" si="33">$E$136</f>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="33"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="33"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="L137">
+        <f>$E$137</f>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="M137">
+        <f t="shared" ref="M137:N140" si="34">$E$137</f>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="34"/>
+        <v>3.3899999999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <f t="shared" ref="H138:H140" si="35">$E$136</f>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="33"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="33"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="33"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="L138">
+        <f t="shared" ref="L138:L140" si="36">$E$137</f>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="34"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="34"/>
+        <v>3.3899999999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <f t="shared" si="35"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="33"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="33"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="33"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="36"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="34"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="34"/>
+        <v>3.3899999999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <f t="shared" si="35"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="33"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="33"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="33"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="36"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="34"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="34"/>
+        <v>3.3899999999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>3</v>
+      </c>
+      <c r="K142">
+        <v>4</v>
+      </c>
+      <c r="L142">
+        <v>5</v>
+      </c>
+      <c r="M142">
+        <v>6</v>
+      </c>
+      <c r="N142">
+        <v>7</v>
+      </c>
+      <c r="O142">
+        <v>8</v>
+      </c>
+      <c r="P142">
+        <v>9</v>
+      </c>
+      <c r="Q142">
+        <v>10</v>
+      </c>
+      <c r="R142">
+        <v>11</v>
+      </c>
+      <c r="S142">
+        <v>12</v>
+      </c>
+      <c r="T142">
+        <v>13</v>
+      </c>
+      <c r="U142">
+        <v>14</v>
+      </c>
+      <c r="V142">
+        <v>15</v>
+      </c>
+      <c r="W142">
+        <v>16</v>
+      </c>
+      <c r="X142">
+        <v>17</v>
+      </c>
+      <c r="Y142">
+        <v>18</v>
+      </c>
+      <c r="Z142">
+        <v>19</v>
+      </c>
+      <c r="AA142">
+        <v>20</v>
+      </c>
+      <c r="AB142">
+        <v>21</v>
+      </c>
+      <c r="AC142">
+        <v>22</v>
+      </c>
+      <c r="AD142">
+        <v>23</v>
+      </c>
+      <c r="AE142">
+        <v>24</v>
+      </c>
+      <c r="AF142">
+        <v>25</v>
+      </c>
+      <c r="AG142">
+        <v>26</v>
+      </c>
+      <c r="AH142">
+        <v>27</v>
+      </c>
+      <c r="AI142">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>235</v>
+      </c>
+      <c r="H143">
+        <f>H118+H132</f>
+        <v>35.4</v>
+      </c>
+      <c r="I143">
+        <f t="shared" ref="I143:U143" si="37">I118+I132</f>
+        <v>35.4</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="37"/>
+        <v>35.4</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="37"/>
+        <v>35.4</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="37"/>
+        <v>28.91</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="37"/>
+        <v>28.91</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="37"/>
+        <v>28.91</v>
+      </c>
+      <c r="O143">
+        <f>H143</f>
+        <v>35.4</v>
+      </c>
+      <c r="P143">
+        <f t="shared" ref="P143:P144" si="38">I143</f>
+        <v>35.4</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" ref="Q143:Q144" si="39">J143</f>
+        <v>35.4</v>
+      </c>
+      <c r="R143">
+        <f t="shared" ref="R143:R144" si="40">K143</f>
+        <v>35.4</v>
+      </c>
+      <c r="S143">
+        <f t="shared" ref="S143:S144" si="41">L143</f>
+        <v>28.91</v>
+      </c>
+      <c r="T143">
+        <f t="shared" ref="T143:T144" si="42">M143</f>
+        <v>28.91</v>
+      </c>
+      <c r="U143">
+        <f t="shared" ref="U143:U144" si="43">N143</f>
+        <v>28.91</v>
+      </c>
+      <c r="V143">
+        <f t="shared" ref="V143:V144" si="44">O143</f>
+        <v>35.4</v>
+      </c>
+      <c r="W143">
+        <f t="shared" ref="W143:W144" si="45">P143</f>
+        <v>35.4</v>
+      </c>
+      <c r="X143">
+        <f t="shared" ref="X143:X144" si="46">Q143</f>
+        <v>35.4</v>
+      </c>
+      <c r="Y143">
+        <f t="shared" ref="Y143:Y144" si="47">R143</f>
+        <v>35.4</v>
+      </c>
+      <c r="Z143">
+        <f t="shared" ref="Z143:Z144" si="48">S143</f>
+        <v>28.91</v>
+      </c>
+      <c r="AA143">
+        <f t="shared" ref="AA143:AA144" si="49">T143</f>
+        <v>28.91</v>
+      </c>
+      <c r="AB143">
+        <f t="shared" ref="AB143:AB144" si="50">U143</f>
+        <v>28.91</v>
+      </c>
+      <c r="AC143">
+        <f t="shared" ref="AC143:AC144" si="51">V143</f>
+        <v>35.4</v>
+      </c>
+      <c r="AD143">
+        <f t="shared" ref="AD143:AD144" si="52">W143</f>
+        <v>35.4</v>
+      </c>
+      <c r="AE143">
+        <f t="shared" ref="AE143:AE144" si="53">X143</f>
+        <v>35.4</v>
+      </c>
+      <c r="AF143">
+        <f t="shared" ref="AF143:AF144" si="54">Y143</f>
+        <v>35.4</v>
+      </c>
+      <c r="AG143">
+        <f t="shared" ref="AG143:AG144" si="55">Z143</f>
+        <v>28.91</v>
+      </c>
+      <c r="AH143">
+        <f t="shared" ref="AH143:AH144" si="56">AA143</f>
+        <v>28.91</v>
+      </c>
+      <c r="AI143">
+        <f t="shared" ref="AI143:AI144" si="57">AB143</f>
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <f>H123+H137</f>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="I144">
+        <f t="shared" ref="I144:N144" si="58">I123+I137</f>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="58"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="58"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="58"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="58"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="58"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="O144">
+        <f>H144</f>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="38"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" si="39"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="40"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="41"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="42"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="43"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="V144">
+        <f t="shared" si="44"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="W144">
+        <f t="shared" si="45"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="X144">
+        <f t="shared" si="46"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="Y144">
+        <f t="shared" si="47"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="Z144">
+        <f t="shared" si="48"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="AA144">
+        <f t="shared" si="49"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="AB144">
+        <f t="shared" si="50"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="AC144">
+        <f t="shared" si="51"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="AD144">
+        <f t="shared" si="52"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="AE144">
+        <f t="shared" si="53"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="AF144">
+        <f t="shared" si="54"/>
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="AG144">
+        <f t="shared" si="55"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="AH144">
+        <f t="shared" si="56"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="AI144">
+        <f t="shared" si="57"/>
+        <v>3.3899999999999997</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -16106,9 +18118,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16284,26 +18299,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16327,9 +18331,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input_output/model_input_9groups.xlsx
+++ b/input_output/model_input_9groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/Master V22/master2022/input_output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erlendcorneliussen/Documents/Studier/Master/GitHub Repository/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AEC19C-C1E4-294E-A60C-1555F0395F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34F0CE9-8D54-EE44-B640-514DDE9ED79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21600" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -1495,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="BT14" sqref="BT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="BT5" s="60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU5" s="59"/>
       <c r="BV5" s="8">
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="BT6" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BU6" s="59"/>
       <c r="BV6" s="8">
@@ -13031,7 +13031,7 @@
         <v>35.4</v>
       </c>
       <c r="I125">
-        <f t="shared" ref="I125:U125" si="26">I100+I114</f>
+        <f t="shared" ref="I125:N125" si="26">I100+I114</f>
         <v>35.4</v>
       </c>
       <c r="J125">
@@ -13675,7 +13675,7 @@
         <v>35.4</v>
       </c>
       <c r="I143">
-        <f t="shared" ref="I143:U143" si="37">I118+I132</f>
+        <f t="shared" ref="I143:N143" si="37">I118+I132</f>
         <v>35.4</v>
       </c>
       <c r="J143">
@@ -18118,12 +18118,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18299,15 +18296,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18331,17 +18339,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input_output/model_input_9groups.xlsx
+++ b/input_output/model_input_9groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erlendcorneliussen/Documents/Studier/Master/GitHub Repository/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34F0CE9-8D54-EE44-B640-514DDE9ED79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029DD298-405C-AD43-BABB-13984CDEB5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21600" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -1495,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="BT14" sqref="BT14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18118,12 +18118,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -18295,6 +18289,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -18305,22 +18305,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18338,6 +18322,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
   <ds:schemaRefs>

--- a/input_output/model_input_9groups.xlsx
+++ b/input_output/model_input_9groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erlendcorneliussen/Documents/Studier/Master/GitHub Repository/master2022/input_output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sambaad.stud.ntnu.no\oyviasp\.profil\stud\datasal\Desktop\master2022\input_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029DD298-405C-AD43-BABB-13984CDEB5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA65084-356A-48EF-9FD5-03325CC8C82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="960" yWindow="5910" windowWidth="21600" windowHeight="11385" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -1181,7 +1181,7 @@
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{8F977E11-39D4-E04C-8D51-A4F1FE1B59AD}"/>
-    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1495,30 +1495,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AO20" sqref="AO20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q8:Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="2.83203125" customWidth="1"/>
-    <col min="9" max="36" width="4.6640625" customWidth="1"/>
+    <col min="2" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="2.875" customWidth="1"/>
+    <col min="9" max="36" width="4.625" customWidth="1"/>
     <col min="37" max="37" width="7" customWidth="1"/>
     <col min="38" max="38" width="4.5" customWidth="1"/>
-    <col min="39" max="39" width="11.1640625" customWidth="1"/>
-    <col min="40" max="40" width="12.6640625" customWidth="1"/>
-    <col min="41" max="41" width="13.1640625" customWidth="1"/>
+    <col min="39" max="39" width="11.125" customWidth="1"/>
+    <col min="40" max="40" width="12.625" customWidth="1"/>
+    <col min="41" max="41" width="13.125" customWidth="1"/>
     <col min="42" max="42" width="3.5" customWidth="1"/>
-    <col min="43" max="43" width="8.83203125" customWidth="1"/>
+    <col min="43" max="43" width="8.875" customWidth="1"/>
     <col min="44" max="71" width="3.5" customWidth="1"/>
-    <col min="72" max="72" width="10.83203125" customWidth="1"/>
-    <col min="74" max="74" width="4.33203125" customWidth="1"/>
-    <col min="78" max="105" width="7.33203125" customWidth="1"/>
-    <col min="106" max="139" width="3.33203125" customWidth="1"/>
+    <col min="72" max="72" width="10.875" customWidth="1"/>
+    <col min="74" max="74" width="4.375" customWidth="1"/>
+    <col min="78" max="105" width="7.375" customWidth="1"/>
+    <col min="106" max="139" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:111" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
         <v>133</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:111" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="30">
         <v>0.1</v>
@@ -1843,88 +1843,88 @@
         <v>33</v>
       </c>
       <c r="I2" s="27">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="J2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="K2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="L2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="M2" s="28">
-        <v>28.9</v>
+        <v>49</v>
       </c>
       <c r="N2" s="28">
-        <v>28.9</v>
+        <v>49</v>
       </c>
       <c r="O2" s="28">
-        <v>28.9</v>
+        <v>49</v>
       </c>
       <c r="P2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="R2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="S2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="T2" s="28">
-        <v>28.9</v>
+        <v>49</v>
       </c>
       <c r="U2" s="28">
-        <v>28.9</v>
+        <v>49</v>
       </c>
       <c r="V2" s="28">
-        <v>28.9</v>
+        <v>49</v>
       </c>
       <c r="W2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="X2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="AA2" s="28">
-        <v>28.9</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="28">
-        <v>28.9</v>
+        <v>49</v>
       </c>
       <c r="AC2" s="28">
-        <v>28.9</v>
+        <v>49</v>
       </c>
       <c r="AD2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="28">
-        <v>35.4</v>
+        <v>60</v>
       </c>
       <c r="AH2" s="28">
-        <v>28.9</v>
+        <v>49</v>
       </c>
       <c r="AI2" s="28">
-        <v>28.9</v>
+        <v>49</v>
       </c>
       <c r="AJ2" s="28">
-        <v>28.9</v>
+        <v>49</v>
       </c>
       <c r="AK2" s="47">
         <v>20</v>
@@ -2132,7 +2132,7 @@
       <c r="DF2" s="3"/>
       <c r="DG2" s="3"/>
     </row>
-    <row r="3" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:111" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -2144,88 +2144,88 @@
         <v>44</v>
       </c>
       <c r="I3" s="14">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="J3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="K3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="L3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="M3" s="15">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N3" s="15">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O3" s="15">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="R3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="S3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="T3" s="15">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="U3" s="15">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="V3" s="15">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="W3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="X3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="AA3" s="15">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="15">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="15">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="AE3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="AF3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="AG3" s="15">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="AH3" s="15">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="AI3" s="15">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="AJ3" s="15">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="AK3" s="48">
         <v>2</v>
@@ -2433,7 +2433,7 @@
       <c r="DF3" s="3"/>
       <c r="DG3" s="3"/>
     </row>
-    <row r="4" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -2610,7 +2610,7 @@
       <c r="DF4" s="3"/>
       <c r="DG4" s="3"/>
     </row>
-    <row r="5" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -2787,7 +2787,7 @@
       <c r="DF5" s="3"/>
       <c r="DG5" s="3"/>
     </row>
-    <row r="6" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:111" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -2964,7 +2964,7 @@
       <c r="DF6" s="3"/>
       <c r="DG6" s="3"/>
     </row>
-    <row r="7" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -3081,7 +3081,7 @@
       <c r="DF7" s="3"/>
       <c r="DG7" s="3"/>
     </row>
-    <row r="8" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3170,7 +3170,7 @@
       <c r="BX8" s="2"/>
       <c r="CD8" s="3"/>
     </row>
-    <row r="9" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -3259,7 +3259,7 @@
       <c r="BX9" s="2"/>
       <c r="CD9" s="3"/>
     </row>
-    <row r="10" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:111" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -3348,7 +3348,7 @@
       <c r="BX10" s="2"/>
       <c r="CD10" s="3"/>
     </row>
-    <row r="11" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -3431,7 +3431,7 @@
       <c r="BX11" s="2"/>
       <c r="CD11" s="3"/>
     </row>
-    <row r="12" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -3514,7 +3514,7 @@
       <c r="BX12" s="2"/>
       <c r="CD12" s="3"/>
     </row>
-    <row r="13" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -3597,7 +3597,7 @@
       <c r="BX13" s="2"/>
       <c r="CD13" s="3"/>
     </row>
-    <row r="14" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -3680,7 +3680,7 @@
       <c r="BX14" s="2"/>
       <c r="CD14" s="3"/>
     </row>
-    <row r="15" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -3763,7 +3763,7 @@
       <c r="BX15" s="2"/>
       <c r="CD15" s="3"/>
     </row>
-    <row r="16" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -3846,7 +3846,7 @@
       <c r="BX16" s="2"/>
       <c r="CD16" s="3"/>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -3929,7 +3929,7 @@
       <c r="BX17" s="2"/>
       <c r="CD17" s="3"/>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -4012,7 +4012,7 @@
       <c r="BX18" s="2"/>
       <c r="CD18" s="3"/>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -4095,7 +4095,7 @@
       <c r="BX19" s="2"/>
       <c r="CD19" s="3"/>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
@@ -4178,7 +4178,7 @@
       <c r="BX20" s="2"/>
       <c r="CD20" s="3"/>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -4261,7 +4261,7 @@
       <c r="BX21" s="2"/>
       <c r="CD21" s="3"/>
     </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
@@ -4344,7 +4344,7 @@
       <c r="BX22" s="2"/>
       <c r="CD22" s="3"/>
     </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
@@ -4427,7 +4427,7 @@
       <c r="BX23" s="2"/>
       <c r="CD23" s="3"/>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -4510,7 +4510,7 @@
       <c r="BX24" s="2"/>
       <c r="CD24" s="3"/>
     </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
@@ -4593,7 +4593,7 @@
       <c r="BX25" s="2"/>
       <c r="CD25" s="3"/>
     </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
@@ -4676,7 +4676,7 @@
       <c r="BX26" s="2"/>
       <c r="CD26" s="3"/>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="CD27" s="3"/>
     </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="CD28" s="3"/>
     </row>
-    <row r="29" spans="1:82" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:82" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BV29" s="8">
         <v>28</v>
       </c>
@@ -4847,100 +4847,100 @@
       </c>
       <c r="CD29" s="3"/>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
       <c r="CD30" s="3"/>
     </row>
-    <row r="31" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
       <c r="CD31" s="3"/>
     </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
       <c r="CD32" s="3"/>
     </row>
-    <row r="33" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="33" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD33" s="3"/>
     </row>
-    <row r="34" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="34" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD34" s="3"/>
     </row>
-    <row r="35" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="35" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD35" s="3"/>
     </row>
-    <row r="36" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="36" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD36" s="3"/>
     </row>
-    <row r="37" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="37" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD37" s="3"/>
     </row>
-    <row r="38" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="38" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD38" s="3"/>
     </row>
-    <row r="39" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="39" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD39" s="3"/>
     </row>
-    <row r="40" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="40" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD40" s="3"/>
     </row>
-    <row r="41" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="41" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD41" s="3"/>
     </row>
-    <row r="42" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="42" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD42" s="3"/>
     </row>
-    <row r="43" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="43" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD43" s="3"/>
     </row>
-    <row r="44" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="44" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD44" s="3"/>
     </row>
-    <row r="45" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="45" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD45" s="3"/>
     </row>
-    <row r="46" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="46" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD46" s="3"/>
     </row>
-    <row r="47" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="47" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD47" s="3"/>
     </row>
-    <row r="48" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="48" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD48" s="3"/>
     </row>
-    <row r="49" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="49" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD49" s="3"/>
     </row>
-    <row r="50" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="50" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD50" s="3"/>
     </row>
-    <row r="51" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="51" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD51" s="3"/>
     </row>
-    <row r="52" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="52" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD52" s="3"/>
     </row>
-    <row r="53" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="53" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD53" s="3"/>
     </row>
-    <row r="54" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="54" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD54" s="3"/>
     </row>
-    <row r="55" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="55" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD55" s="3"/>
     </row>
-    <row r="56" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="56" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD56" s="3"/>
     </row>
-    <row r="57" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="57" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD57" s="3"/>
     </row>
-    <row r="58" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="58" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD58" s="3"/>
     </row>
-    <row r="59" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="59" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD59" s="3"/>
     </row>
-    <row r="60" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="60" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD60" s="3"/>
     </row>
-    <row r="61" spans="82:82" x14ac:dyDescent="0.2">
+    <row r="61" spans="82:82" x14ac:dyDescent="0.25">
       <c r="CD61" s="3"/>
     </row>
   </sheetData>
@@ -4958,22 +4958,22 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="7" max="15" width="4" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" customWidth="1"/>
-    <col min="18" max="26" width="5.1640625" customWidth="1"/>
-    <col min="27" max="33" width="3.83203125" customWidth="1"/>
-    <col min="34" max="34" width="4.6640625" customWidth="1"/>
+    <col min="16" max="16" width="4.375" customWidth="1"/>
+    <col min="18" max="26" width="5.125" customWidth="1"/>
+    <col min="27" max="33" width="3.875" customWidth="1"/>
+    <col min="34" max="34" width="4.625" customWidth="1"/>
     <col min="35" max="35" width="6" customWidth="1"/>
-    <col min="36" max="36" width="4.33203125" customWidth="1"/>
+    <col min="36" max="36" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>132</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="s">
         <v>5</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>8</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>3</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="38" t="s">
         <v>9</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
         <v>12</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
         <v>6</v>
       </c>
@@ -5445,12 +5445,12 @@
       <c r="AR8" s="43"/>
       <c r="AS8" s="43"/>
     </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:45" x14ac:dyDescent="0.25">
       <c r="D9" s="45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="46" t="s">
         <v>41</v>
       </c>
@@ -5470,12 +5470,12 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="49" max="49" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>3.1545741324921135E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>1.0752688172043012E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>7.347538574577516E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
     </row>
   </sheetData>
@@ -6146,9 +6146,9 @@
       <selection activeCell="B2" sqref="B2:U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="AR1" s="5"/>
       <c r="AS1" s="5"/>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="AR2" s="5"/>
       <c r="AS2" s="5"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -6500,7 +6500,7 @@
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -6676,7 +6676,7 @@
       <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -6764,7 +6764,7 @@
       <c r="AR7" s="5"/>
       <c r="AS7" s="5"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -6940,7 +6940,7 @@
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
     </row>
-    <row r="10" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -7028,7 +7028,7 @@
       <c r="AR10" s="5"/>
       <c r="AS10" s="5"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
@@ -7053,7 +7053,7 @@
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -7078,7 +7078,7 @@
       <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
@@ -7103,7 +7103,7 @@
       <c r="AR13" s="5"/>
       <c r="AS13" s="5"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
@@ -7128,7 +7128,7 @@
       <c r="AR14" s="5"/>
       <c r="AS14" s="5"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
@@ -7153,7 +7153,7 @@
       <c r="AR15" s="5"/>
       <c r="AS15" s="5"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
@@ -7178,7 +7178,7 @@
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
     </row>
-    <row r="17" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="22:45" x14ac:dyDescent="0.25">
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
@@ -7203,7 +7203,7 @@
       <c r="AR17" s="5"/>
       <c r="AS17" s="5"/>
     </row>
-    <row r="18" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="22:45" x14ac:dyDescent="0.25">
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
@@ -7228,7 +7228,7 @@
       <c r="AR18" s="5"/>
       <c r="AS18" s="5"/>
     </row>
-    <row r="19" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="22:45" x14ac:dyDescent="0.25">
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -7253,7 +7253,7 @@
       <c r="AR19" s="5"/>
       <c r="AS19" s="5"/>
     </row>
-    <row r="20" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="22:45" x14ac:dyDescent="0.25">
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
@@ -7278,7 +7278,7 @@
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
     </row>
-    <row r="21" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="22:45" x14ac:dyDescent="0.25">
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
@@ -7303,7 +7303,7 @@
       <c r="AR21" s="5"/>
       <c r="AS21" s="5"/>
     </row>
-    <row r="22" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="22:45" x14ac:dyDescent="0.25">
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
@@ -7328,7 +7328,7 @@
       <c r="AR22" s="5"/>
       <c r="AS22" s="5"/>
     </row>
-    <row r="23" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="22:45" x14ac:dyDescent="0.25">
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
@@ -7353,7 +7353,7 @@
       <c r="AR23" s="5"/>
       <c r="AS23" s="5"/>
     </row>
-    <row r="24" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="22:45" x14ac:dyDescent="0.25">
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
@@ -7378,7 +7378,7 @@
       <c r="AR24" s="5"/>
       <c r="AS24" s="5"/>
     </row>
-    <row r="25" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="22:45" x14ac:dyDescent="0.25">
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
@@ -7403,7 +7403,7 @@
       <c r="AR25" s="5"/>
       <c r="AS25" s="5"/>
     </row>
-    <row r="26" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="22:45" x14ac:dyDescent="0.25">
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
@@ -7428,7 +7428,7 @@
       <c r="AR26" s="5"/>
       <c r="AS26" s="5"/>
     </row>
-    <row r="27" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="22:45" x14ac:dyDescent="0.25">
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -7446,7 +7446,7 @@
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
     </row>
-    <row r="28" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="22:45" x14ac:dyDescent="0.25">
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -7464,7 +7464,7 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
     </row>
-    <row r="29" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="22:45" x14ac:dyDescent="0.25">
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
@@ -7482,7 +7482,7 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
     </row>
-    <row r="30" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="30" spans="22:45" x14ac:dyDescent="0.25">
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
@@ -7500,7 +7500,7 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
     </row>
-    <row r="31" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="31" spans="22:45" x14ac:dyDescent="0.25">
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -7518,7 +7518,7 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
     </row>
-    <row r="32" spans="22:45" x14ac:dyDescent="0.2">
+    <row r="32" spans="22:45" x14ac:dyDescent="0.25">
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
@@ -7554,12 +7554,12 @@
       <selection activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="49" max="49" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>3.1545741324921135E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>1.0752688172043012E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>7.347538574577516E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -8209,10 +8209,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -8257,7 +8257,7 @@
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -8302,12 +8302,12 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -8336,7 +8336,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -9191,8 +9191,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>143</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>1</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B49">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="AC49" s="68"/>
     </row>
-    <row r="50" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C50">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="AC50" s="68"/>
     </row>
-    <row r="51" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:45" x14ac:dyDescent="0.25">
       <c r="D51">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9782,7 +9782,7 @@
       </c>
       <c r="AC51" s="68"/>
     </row>
-    <row r="52" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:45" x14ac:dyDescent="0.25">
       <c r="E52">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="AC52" s="68"/>
     </row>
-    <row r="53" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:45" x14ac:dyDescent="0.25">
       <c r="F53">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="AC53" s="68"/>
     </row>
-    <row r="54" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I54">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="AC54" s="68"/>
     </row>
-    <row r="55" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:45" x14ac:dyDescent="0.25">
       <c r="J55">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10113,7 +10113,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:45" x14ac:dyDescent="0.25">
       <c r="K56">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10195,7 +10195,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:45" x14ac:dyDescent="0.25">
       <c r="L57">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10277,7 +10277,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:45" x14ac:dyDescent="0.25">
       <c r="M58">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10359,7 +10359,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:45" x14ac:dyDescent="0.25">
       <c r="P59">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10441,7 +10441,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:45" x14ac:dyDescent="0.25">
       <c r="Q60">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10523,7 +10523,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:45" x14ac:dyDescent="0.25">
       <c r="R61">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10605,7 +10605,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:45" x14ac:dyDescent="0.25">
       <c r="S62">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10687,7 +10687,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:45" x14ac:dyDescent="0.25">
       <c r="T63">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10769,7 +10769,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:45" x14ac:dyDescent="0.25">
       <c r="W64">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10851,7 +10851,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
       <c r="X65">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10933,7 +10933,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="Y66">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -11015,7 +11015,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
       <c r="Z67">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -11097,7 +11097,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AA68">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -11179,7 +11179,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>170</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AG70" s="69">
         <f>SUM(AG49:AG68)</f>
         <v>14.532825771838038</v>
@@ -11402,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>18.106048240263348</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>216</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>217</v>
       </c>
@@ -11809,17 +11809,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>24.5</v>
       </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>218</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C79" s="72">
         <f>(SUM(B73:E73)+SUM(I73:L73)+SUM(P73:S73)+SUM(W73:Z73))/16</f>
         <v>0.90773144848659082</v>
@@ -11850,7 +11850,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>222</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>226</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>0.94351128010268503</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>228</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>0.94315667129980962</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>227</v>
       </c>
@@ -11927,17 +11927,17 @@
         <v>0.94392880978517324</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>231</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>33</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>222</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>223</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>44</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>222</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>223</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H106">
         <f>$E$104</f>
         <v>3.8</v>
@@ -12325,7 +12325,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H107">
         <f>$E$104</f>
         <v>3.8</v>
@@ -12376,7 +12376,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H108">
         <f>$E$104</f>
         <v>3.8</v>
@@ -12427,12 +12427,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>231</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>33</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>222</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>44</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>222</v>
       </c>
@@ -12718,7 +12718,7 @@
       <c r="U118" s="75"/>
       <c r="V118" s="75"/>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>223</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H120" s="75">
         <f t="shared" ref="H120:H122" si="24">$E$118</f>
         <v>2.8</v>
@@ -12834,7 +12834,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H121" s="75">
         <f t="shared" si="24"/>
         <v>2.8</v>
@@ -12885,7 +12885,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H122" s="75">
         <f t="shared" si="24"/>
         <v>2.8</v>
@@ -12936,7 +12936,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H124">
         <v>1</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>215</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H126">
         <f>H105+H119</f>
         <v>6.6</v>
@@ -13253,12 +13253,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>231</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>33</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>222</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>223</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>44</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>222</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>6.2149999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>223</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>3.3899999999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H138">
         <f t="shared" ref="H138:H140" si="35">$E$136</f>
         <v>6.2149999999999999</v>
@@ -13520,7 +13520,7 @@
         <v>3.3899999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H139">
         <f t="shared" si="35"/>
         <v>6.2149999999999999</v>
@@ -13550,7 +13550,7 @@
         <v>3.3899999999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H140">
         <f t="shared" si="35"/>
         <v>6.2149999999999999</v>
@@ -13580,7 +13580,7 @@
         <v>3.3899999999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H142">
         <v>1</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>235</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H144">
         <f>H123+H137</f>
         <v>6.2149999999999999</v>
@@ -13912,12 +13912,12 @@
       <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="49" max="49" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -14567,10 +14567,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -14615,7 +14615,7 @@
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -14660,12 +14660,12 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -14694,7 +14694,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -15549,8 +15549,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>143</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>1</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B49">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="AC49" s="68"/>
     </row>
-    <row r="50" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:45" x14ac:dyDescent="0.25">
       <c r="C50">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="AC50" s="68"/>
     </row>
-    <row r="51" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:45" x14ac:dyDescent="0.25">
       <c r="D51">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16140,7 +16140,7 @@
       </c>
       <c r="AC51" s="68"/>
     </row>
-    <row r="52" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:45" x14ac:dyDescent="0.25">
       <c r="E52">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="AC52" s="68"/>
     </row>
-    <row r="53" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:45" x14ac:dyDescent="0.25">
       <c r="F53">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16306,7 +16306,7 @@
       </c>
       <c r="AC53" s="68"/>
     </row>
-    <row r="54" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I54">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16389,7 +16389,7 @@
       </c>
       <c r="AC54" s="68"/>
     </row>
-    <row r="55" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:45" x14ac:dyDescent="0.25">
       <c r="J55">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16471,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:45" x14ac:dyDescent="0.25">
       <c r="K56">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:45" x14ac:dyDescent="0.25">
       <c r="L57">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16635,7 +16635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:45" x14ac:dyDescent="0.25">
       <c r="M58">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16717,7 +16717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:45" x14ac:dyDescent="0.25">
       <c r="P59">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16799,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:45" x14ac:dyDescent="0.25">
       <c r="Q60">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16881,7 +16881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:45" x14ac:dyDescent="0.25">
       <c r="R61">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:45" x14ac:dyDescent="0.25">
       <c r="S62">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17045,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:45" x14ac:dyDescent="0.25">
       <c r="T63">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17127,7 +17127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:45" x14ac:dyDescent="0.25">
       <c r="W64">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
       <c r="X65">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17291,7 +17291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="Y66">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17373,7 +17373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
       <c r="Z67">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17455,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AA68">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17537,7 +17537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>170</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AG70" s="69">
         <f>SUM(AG49:AG68)</f>
         <v>0</v>
@@ -17760,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>216</v>
       </c>
@@ -17994,22 +17994,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3.2</v>
       </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1.7</v>
       </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>218</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C79" s="72">
         <f>(SUM(B73:E73)+SUM(I73:L73)+SUM(P73:S73)+SUM(W73:Z73))/16</f>
         <v>0.88885605104418297</v>
@@ -18034,7 +18034,7 @@
         <v>0.85819771586677485</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>222</v>
       </c>
@@ -18051,7 +18051,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>224</v>
       </c>
@@ -18071,7 +18071,7 @@
         <v>0.84339254400710928</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>0.82376082793840522</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>225</v>
       </c>
@@ -18290,18 +18290,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18323,6 +18323,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -18336,12 +18344,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input_output/model_input_9groups.xlsx
+++ b/input_output/model_input_9groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sambaad.stud.ntnu.no\oyviasp\.profil\stud\datasal\Desktop\master2022\input_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/MasterV22/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA65084-356A-48EF-9FD5-03325CC8C82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF3678F-EAAD-A74B-BCC1-A475EE87175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="5910" windowWidth="21600" windowHeight="11385" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="2180" yWindow="2160" windowWidth="35920" windowHeight="21420" activeTab="5" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="MCcalculation" sheetId="16" r:id="rId5"/>
     <sheet name="ICcalculation" sheetId="17" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028" calcOnSave="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1181,7 +1181,7 @@
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{8F977E11-39D4-E04C-8D51-A4F1FE1B59AD}"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1495,30 +1495,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q8:Q9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AN14" sqref="AN14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="2.875" customWidth="1"/>
-    <col min="9" max="36" width="4.625" customWidth="1"/>
+    <col min="2" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" customWidth="1"/>
+    <col min="9" max="36" width="4.6640625" customWidth="1"/>
     <col min="37" max="37" width="7" customWidth="1"/>
     <col min="38" max="38" width="4.5" customWidth="1"/>
-    <col min="39" max="39" width="11.125" customWidth="1"/>
-    <col min="40" max="40" width="12.625" customWidth="1"/>
-    <col min="41" max="41" width="13.125" customWidth="1"/>
+    <col min="39" max="39" width="11.1640625" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" customWidth="1"/>
+    <col min="41" max="41" width="13.1640625" customWidth="1"/>
     <col min="42" max="42" width="3.5" customWidth="1"/>
-    <col min="43" max="43" width="8.875" customWidth="1"/>
+    <col min="43" max="43" width="8.83203125" customWidth="1"/>
     <col min="44" max="71" width="3.5" customWidth="1"/>
-    <col min="72" max="72" width="10.875" customWidth="1"/>
-    <col min="74" max="74" width="4.375" customWidth="1"/>
-    <col min="78" max="105" width="7.375" customWidth="1"/>
-    <col min="106" max="139" width="3.375" customWidth="1"/>
+    <col min="72" max="72" width="10.83203125" customWidth="1"/>
+    <col min="74" max="74" width="4.33203125" customWidth="1"/>
+    <col min="78" max="105" width="7.33203125" customWidth="1"/>
+    <col min="106" max="139" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:111" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
         <v>133</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:111" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="30">
         <v>0.1</v>
@@ -2132,7 +2132,7 @@
       <c r="DF2" s="3"/>
       <c r="DG2" s="3"/>
     </row>
-    <row r="3" spans="1:111" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -2433,7 +2433,7 @@
       <c r="DF3" s="3"/>
       <c r="DG3" s="3"/>
     </row>
-    <row r="4" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -2610,7 +2610,7 @@
       <c r="DF4" s="3"/>
       <c r="DG4" s="3"/>
     </row>
-    <row r="5" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -2787,7 +2787,7 @@
       <c r="DF5" s="3"/>
       <c r="DG5" s="3"/>
     </row>
-    <row r="6" spans="1:111" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -2964,7 +2964,7 @@
       <c r="DF6" s="3"/>
       <c r="DG6" s="3"/>
     </row>
-    <row r="7" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -3081,7 +3081,7 @@
       <c r="DF7" s="3"/>
       <c r="DG7" s="3"/>
     </row>
-    <row r="8" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3170,7 +3170,7 @@
       <c r="BX8" s="2"/>
       <c r="CD8" s="3"/>
     </row>
-    <row r="9" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -3259,7 +3259,7 @@
       <c r="BX9" s="2"/>
       <c r="CD9" s="3"/>
     </row>
-    <row r="10" spans="1:111" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -3348,7 +3348,7 @@
       <c r="BX10" s="2"/>
       <c r="CD10" s="3"/>
     </row>
-    <row r="11" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -3431,7 +3431,7 @@
       <c r="BX11" s="2"/>
       <c r="CD11" s="3"/>
     </row>
-    <row r="12" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -3514,7 +3514,7 @@
       <c r="BX12" s="2"/>
       <c r="CD12" s="3"/>
     </row>
-    <row r="13" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -3597,7 +3597,7 @@
       <c r="BX13" s="2"/>
       <c r="CD13" s="3"/>
     </row>
-    <row r="14" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -3680,7 +3680,7 @@
       <c r="BX14" s="2"/>
       <c r="CD14" s="3"/>
     </row>
-    <row r="15" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -3763,7 +3763,7 @@
       <c r="BX15" s="2"/>
       <c r="CD15" s="3"/>
     </row>
-    <row r="16" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -3846,7 +3846,7 @@
       <c r="BX16" s="2"/>
       <c r="CD16" s="3"/>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -3929,7 +3929,7 @@
       <c r="BX17" s="2"/>
       <c r="CD17" s="3"/>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -4012,7 +4012,7 @@
       <c r="BX18" s="2"/>
       <c r="CD18" s="3"/>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -4095,7 +4095,7 @@
       <c r="BX19" s="2"/>
       <c r="CD19" s="3"/>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
@@ -4178,7 +4178,7 @@
       <c r="BX20" s="2"/>
       <c r="CD20" s="3"/>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -4261,7 +4261,7 @@
       <c r="BX21" s="2"/>
       <c r="CD21" s="3"/>
     </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
@@ -4344,7 +4344,7 @@
       <c r="BX22" s="2"/>
       <c r="CD22" s="3"/>
     </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
@@ -4427,7 +4427,7 @@
       <c r="BX23" s="2"/>
       <c r="CD23" s="3"/>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -4510,7 +4510,7 @@
       <c r="BX24" s="2"/>
       <c r="CD24" s="3"/>
     </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
@@ -4593,7 +4593,7 @@
       <c r="BX25" s="2"/>
       <c r="CD25" s="3"/>
     </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
@@ -4676,7 +4676,7 @@
       <c r="BX26" s="2"/>
       <c r="CD26" s="3"/>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.2">
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="CD27" s="3"/>
     </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.2">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="CD28" s="3"/>
     </row>
-    <row r="29" spans="1:82" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:82" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="BV29" s="8">
         <v>28</v>
       </c>
@@ -4847,100 +4847,100 @@
       </c>
       <c r="CD29" s="3"/>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.2">
       <c r="CD30" s="3"/>
     </row>
-    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:82" x14ac:dyDescent="0.2">
       <c r="CD31" s="3"/>
     </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:82" x14ac:dyDescent="0.2">
       <c r="CD32" s="3"/>
     </row>
-    <row r="33" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="33" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD33" s="3"/>
     </row>
-    <row r="34" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="34" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD34" s="3"/>
     </row>
-    <row r="35" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="35" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD35" s="3"/>
     </row>
-    <row r="36" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="36" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD36" s="3"/>
     </row>
-    <row r="37" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="37" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD37" s="3"/>
     </row>
-    <row r="38" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="38" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD38" s="3"/>
     </row>
-    <row r="39" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="39" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD39" s="3"/>
     </row>
-    <row r="40" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="40" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD40" s="3"/>
     </row>
-    <row r="41" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="41" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD41" s="3"/>
     </row>
-    <row r="42" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="42" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD42" s="3"/>
     </row>
-    <row r="43" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="43" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD43" s="3"/>
     </row>
-    <row r="44" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="44" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD44" s="3"/>
     </row>
-    <row r="45" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="45" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD45" s="3"/>
     </row>
-    <row r="46" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="46" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD46" s="3"/>
     </row>
-    <row r="47" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="47" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD47" s="3"/>
     </row>
-    <row r="48" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="48" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD48" s="3"/>
     </row>
-    <row r="49" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="49" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD49" s="3"/>
     </row>
-    <row r="50" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="50" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD50" s="3"/>
     </row>
-    <row r="51" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="51" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD51" s="3"/>
     </row>
-    <row r="52" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="52" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD52" s="3"/>
     </row>
-    <row r="53" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="53" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD53" s="3"/>
     </row>
-    <row r="54" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="54" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD54" s="3"/>
     </row>
-    <row r="55" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="55" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD55" s="3"/>
     </row>
-    <row r="56" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="56" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD56" s="3"/>
     </row>
-    <row r="57" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="57" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD57" s="3"/>
     </row>
-    <row r="58" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="58" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD58" s="3"/>
     </row>
-    <row r="59" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="59" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD59" s="3"/>
     </row>
-    <row r="60" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="60" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD60" s="3"/>
     </row>
-    <row r="61" spans="82:82" x14ac:dyDescent="0.25">
+    <row r="61" spans="82:82" x14ac:dyDescent="0.2">
       <c r="CD61" s="3"/>
     </row>
   </sheetData>
@@ -4958,22 +4958,22 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="7" max="15" width="4" customWidth="1"/>
-    <col min="16" max="16" width="4.375" customWidth="1"/>
-    <col min="18" max="26" width="5.125" customWidth="1"/>
-    <col min="27" max="33" width="3.875" customWidth="1"/>
-    <col min="34" max="34" width="4.625" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" customWidth="1"/>
+    <col min="18" max="26" width="5.1640625" customWidth="1"/>
+    <col min="27" max="33" width="3.83203125" customWidth="1"/>
+    <col min="34" max="34" width="4.6640625" customWidth="1"/>
     <col min="35" max="35" width="6" customWidth="1"/>
-    <col min="36" max="36" width="4.375" customWidth="1"/>
+    <col min="36" max="36" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>132</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>5</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>8</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>3</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>9</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>12</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>6</v>
       </c>
@@ -5445,12 +5445,12 @@
       <c r="AR8" s="43"/>
       <c r="AS8" s="43"/>
     </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:45" x14ac:dyDescent="0.2">
       <c r="D9" s="45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D10" s="46" t="s">
         <v>41</v>
       </c>
@@ -5470,12 +5470,12 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="49" max="49" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>3.1545741324921135E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>1.0752688172043012E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>7.347538574577516E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="64"/>
     </row>
   </sheetData>
@@ -6146,9 +6146,9 @@
       <selection activeCell="B2" sqref="B2:U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="AR1" s="5"/>
       <c r="AS1" s="5"/>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="AR2" s="5"/>
       <c r="AS2" s="5"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -6500,7 +6500,7 @@
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -6676,7 +6676,7 @@
       <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -6764,7 +6764,7 @@
       <c r="AR7" s="5"/>
       <c r="AS7" s="5"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -6940,7 +6940,7 @@
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -7028,7 +7028,7 @@
       <c r="AR10" s="5"/>
       <c r="AS10" s="5"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
@@ -7053,7 +7053,7 @@
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -7078,7 +7078,7 @@
       <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
@@ -7103,7 +7103,7 @@
       <c r="AR13" s="5"/>
       <c r="AS13" s="5"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
@@ -7128,7 +7128,7 @@
       <c r="AR14" s="5"/>
       <c r="AS14" s="5"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
@@ -7153,7 +7153,7 @@
       <c r="AR15" s="5"/>
       <c r="AS15" s="5"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
@@ -7178,7 +7178,7 @@
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
     </row>
-    <row r="17" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="22:45" x14ac:dyDescent="0.2">
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
@@ -7203,7 +7203,7 @@
       <c r="AR17" s="5"/>
       <c r="AS17" s="5"/>
     </row>
-    <row r="18" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="22:45" x14ac:dyDescent="0.2">
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
@@ -7228,7 +7228,7 @@
       <c r="AR18" s="5"/>
       <c r="AS18" s="5"/>
     </row>
-    <row r="19" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="22:45" x14ac:dyDescent="0.2">
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -7253,7 +7253,7 @@
       <c r="AR19" s="5"/>
       <c r="AS19" s="5"/>
     </row>
-    <row r="20" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="22:45" x14ac:dyDescent="0.2">
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
@@ -7278,7 +7278,7 @@
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
     </row>
-    <row r="21" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="22:45" x14ac:dyDescent="0.2">
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
@@ -7303,7 +7303,7 @@
       <c r="AR21" s="5"/>
       <c r="AS21" s="5"/>
     </row>
-    <row r="22" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="22:45" x14ac:dyDescent="0.2">
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
@@ -7328,7 +7328,7 @@
       <c r="AR22" s="5"/>
       <c r="AS22" s="5"/>
     </row>
-    <row r="23" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="22:45" x14ac:dyDescent="0.2">
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
@@ -7353,7 +7353,7 @@
       <c r="AR23" s="5"/>
       <c r="AS23" s="5"/>
     </row>
-    <row r="24" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="22:45" x14ac:dyDescent="0.2">
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
@@ -7378,7 +7378,7 @@
       <c r="AR24" s="5"/>
       <c r="AS24" s="5"/>
     </row>
-    <row r="25" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="22:45" x14ac:dyDescent="0.2">
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
@@ -7403,7 +7403,7 @@
       <c r="AR25" s="5"/>
       <c r="AS25" s="5"/>
     </row>
-    <row r="26" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="22:45" x14ac:dyDescent="0.2">
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
@@ -7428,7 +7428,7 @@
       <c r="AR26" s="5"/>
       <c r="AS26" s="5"/>
     </row>
-    <row r="27" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="22:45" x14ac:dyDescent="0.2">
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -7446,7 +7446,7 @@
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
     </row>
-    <row r="28" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="22:45" x14ac:dyDescent="0.2">
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -7464,7 +7464,7 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
     </row>
-    <row r="29" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="22:45" x14ac:dyDescent="0.2">
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
@@ -7482,7 +7482,7 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
     </row>
-    <row r="30" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="22:45" x14ac:dyDescent="0.2">
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
@@ -7500,7 +7500,7 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
     </row>
-    <row r="31" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="22:45" x14ac:dyDescent="0.2">
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -7518,7 +7518,7 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
     </row>
-    <row r="32" spans="22:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="22:45" x14ac:dyDescent="0.2">
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
@@ -7550,16 +7550,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667ADA00-9768-9E42-A64A-5CCA52F9FA00}">
   <dimension ref="A1:BH144"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="M107" sqref="M107"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="49" max="49" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>3.1545741324921135E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>1.0752688172043012E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>7.347538574577516E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -8209,10 +8209,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="64"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -8257,7 +8257,7 @@
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -8302,12 +8302,12 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -8336,7 +8336,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -9191,8 +9191,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>143</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>1</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B49">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="AC49" s="68"/>
     </row>
-    <row r="50" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C50">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="AC50" s="68"/>
     </row>
-    <row r="51" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:45" x14ac:dyDescent="0.2">
       <c r="D51">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9782,7 +9782,7 @@
       </c>
       <c r="AC51" s="68"/>
     </row>
-    <row r="52" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:45" x14ac:dyDescent="0.2">
       <c r="E52">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="AC52" s="68"/>
     </row>
-    <row r="53" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:45" x14ac:dyDescent="0.2">
       <c r="F53">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="AC53" s="68"/>
     </row>
-    <row r="54" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:45" x14ac:dyDescent="0.2">
       <c r="I54">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="AC54" s="68"/>
     </row>
-    <row r="55" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:45" x14ac:dyDescent="0.2">
       <c r="J55">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10113,7 +10113,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:45" x14ac:dyDescent="0.2">
       <c r="K56">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10195,7 +10195,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:45" x14ac:dyDescent="0.2">
       <c r="L57">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10277,7 +10277,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:45" x14ac:dyDescent="0.2">
       <c r="M58">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10359,7 +10359,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:45" x14ac:dyDescent="0.2">
       <c r="P59">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10441,7 +10441,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:45" x14ac:dyDescent="0.2">
       <c r="Q60">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10523,7 +10523,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:45" x14ac:dyDescent="0.2">
       <c r="R61">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10605,7 +10605,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:45" x14ac:dyDescent="0.2">
       <c r="S62">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10687,7 +10687,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:45" x14ac:dyDescent="0.2">
       <c r="T63">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10769,7 +10769,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:45" x14ac:dyDescent="0.2">
       <c r="W64">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10851,7 +10851,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="X65">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -10933,7 +10933,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Y66">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -11015,7 +11015,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Z67">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -11097,7 +11097,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AA68">
         <f>$B$44</f>
         <v>8.9526725505574003</v>
@@ -11179,7 +11179,7 @@
         <v>1.7038144668874895E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>170</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AG70" s="69">
         <f>SUM(AG49:AG68)</f>
         <v>14.532825771838038</v>
@@ -11402,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -11519,121 +11519,121 @@
         <v>18.106048240263348</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>216</v>
       </c>
       <c r="B73">
         <f>B71/$A$75</f>
-        <v>0.78284994407984787</v>
+        <v>0.39142497203992394</v>
       </c>
       <c r="C73">
         <f t="shared" ref="C73:D73" si="7">C71/$A$75</f>
-        <v>0.89159127465420163</v>
+        <v>0.44579563732710081</v>
       </c>
       <c r="D73">
         <f t="shared" si="7"/>
-        <v>0.95337620632123377</v>
+        <v>0.47668810316061688</v>
       </c>
       <c r="E73">
         <f>E71/$A$75</f>
-        <v>1.0031083688910802</v>
+        <v>0.50155418444554012</v>
       </c>
       <c r="F73">
         <f>F71/$A$76</f>
-        <v>1.2782703383091198</v>
+        <v>0.63913516915455992</v>
       </c>
       <c r="G73">
         <f>G71/$A$76</f>
-        <v>0.95636045130970648</v>
+        <v>0.47818022565485324</v>
       </c>
       <c r="H73">
         <f>H71/$A$76</f>
-        <v>0.73902237715360586</v>
+        <v>0.36951118857680293</v>
       </c>
       <c r="I73">
         <f t="shared" ref="I73:Z73" si="8">I71/$A$75</f>
-        <v>0.78284994407984787</v>
+        <v>0.39142497203992394</v>
       </c>
       <c r="J73">
         <f t="shared" si="8"/>
-        <v>0.89159127465420152</v>
+        <v>0.44579563732710076</v>
       </c>
       <c r="K73">
         <f t="shared" si="8"/>
-        <v>0.95337620632123388</v>
+        <v>0.47668810316061694</v>
       </c>
       <c r="L73">
         <f t="shared" si="8"/>
-        <v>1.0031083688910805</v>
+        <v>0.50155418444554023</v>
       </c>
       <c r="M73">
         <f t="shared" ref="M73:O73" si="9">M71/$A$76</f>
-        <v>1.2782703383091198</v>
+        <v>0.63913516915455992</v>
       </c>
       <c r="N73">
         <f t="shared" si="9"/>
-        <v>0.95636045130970626</v>
+        <v>0.47818022565485313</v>
       </c>
       <c r="O73">
         <f t="shared" si="9"/>
-        <v>0.73902237715360586</v>
+        <v>0.36951118857680293</v>
       </c>
       <c r="P73">
         <f t="shared" ref="P73" si="10">P71/$A$75</f>
-        <v>0.78284994407984798</v>
+        <v>0.39142497203992399</v>
       </c>
       <c r="Q73">
         <f t="shared" si="8"/>
-        <v>0.89159127465420163</v>
+        <v>0.44579563732710081</v>
       </c>
       <c r="R73">
         <f t="shared" si="8"/>
-        <v>0.95337620632123365</v>
+        <v>0.47668810316061683</v>
       </c>
       <c r="S73">
         <f t="shared" si="8"/>
-        <v>1.0031083688910802</v>
+        <v>0.50155418444554012</v>
       </c>
       <c r="T73">
         <f t="shared" ref="T73:V73" si="11">T71/$A$76</f>
-        <v>1.2782703383091198</v>
+        <v>0.63913516915455992</v>
       </c>
       <c r="U73">
         <f t="shared" si="11"/>
-        <v>0.95636045130970648</v>
+        <v>0.47818022565485324</v>
       </c>
       <c r="V73">
         <f t="shared" si="11"/>
-        <v>0.73902237715360608</v>
+        <v>0.36951118857680304</v>
       </c>
       <c r="W73">
         <f t="shared" ref="W73" si="12">W71/$A$75</f>
-        <v>0.78284994407984787</v>
+        <v>0.39142497203992394</v>
       </c>
       <c r="X73">
         <f t="shared" si="8"/>
-        <v>0.89159127465420152</v>
+        <v>0.44579563732710076</v>
       </c>
       <c r="Y73">
         <f t="shared" si="8"/>
-        <v>0.95337620632123388</v>
+        <v>0.47668810316061694</v>
       </c>
       <c r="Z73">
         <f t="shared" si="8"/>
-        <v>1.0031083688910802</v>
+        <v>0.50155418444554012</v>
       </c>
       <c r="AA73">
         <f t="shared" ref="AA73:AC73" si="13">AA71/$A$76</f>
-        <v>1.2782703383091198</v>
+        <v>0.63913516915455992</v>
       </c>
       <c r="AB73">
         <f t="shared" si="13"/>
-        <v>0.95636045130970648</v>
+        <v>0.47818022565485324</v>
       </c>
       <c r="AC73">
         <f t="shared" si="13"/>
-        <v>0.73902237715360608</v>
+        <v>0.36951118857680304</v>
       </c>
       <c r="AG73" t="s">
         <v>173</v>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>217</v>
       </c>
@@ -11809,17 +11809,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>218</v>
       </c>
@@ -11833,24 +11833,24 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C79" s="72">
         <f>(SUM(B73:E73)+SUM(I73:L73)+SUM(P73:S73)+SUM(W73:Z73))/16</f>
-        <v>0.90773144848659082</v>
+        <v>0.45386572424329541</v>
       </c>
       <c r="D79" s="72">
         <f>(SUM(F73:H73)+SUM(M73:O73)+SUM(T73:V73)+SUM(AA73:AC73))/12</f>
-        <v>0.99121772225747751</v>
+        <v>0.49560886112873875</v>
       </c>
       <c r="E79" s="72">
         <f>C79*16/28+D79*12/28</f>
-        <v>0.94351128010268503</v>
+        <v>0.47175564005134252</v>
       </c>
       <c r="G79">
         <v>0.8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>222</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>226</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>0.94351128010268503</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>228</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>0.94315667129980962</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>227</v>
       </c>
@@ -11927,17 +11927,17 @@
         <v>0.94392880978517324</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>231</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>33</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>222</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>223</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>44</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>222</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>223</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H106">
         <f>$E$104</f>
         <v>3.8</v>
@@ -12325,7 +12325,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H107">
         <f>$E$104</f>
         <v>3.8</v>
@@ -12376,7 +12376,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H108">
         <f>$E$104</f>
         <v>3.8</v>
@@ -12427,12 +12427,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>231</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>33</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>222</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>44</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>222</v>
       </c>
@@ -12718,7 +12718,7 @@
       <c r="U118" s="75"/>
       <c r="V118" s="75"/>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>223</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H120" s="75">
         <f t="shared" ref="H120:H122" si="24">$E$118</f>
         <v>2.8</v>
@@ -12834,7 +12834,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H121" s="75">
         <f t="shared" si="24"/>
         <v>2.8</v>
@@ -12885,7 +12885,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H122" s="75">
         <f t="shared" si="24"/>
         <v>2.8</v>
@@ -12936,7 +12936,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H124">
         <v>1</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>215</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H126">
         <f>H105+H119</f>
         <v>6.6</v>
@@ -13253,12 +13253,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>231</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>33</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>222</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>223</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>44</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>222</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>6.2149999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>223</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>3.3899999999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H138">
         <f t="shared" ref="H138:H140" si="35">$E$136</f>
         <v>6.2149999999999999</v>
@@ -13520,7 +13520,7 @@
         <v>3.3899999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H139">
         <f t="shared" si="35"/>
         <v>6.2149999999999999</v>
@@ -13550,7 +13550,7 @@
         <v>3.3899999999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H140">
         <f t="shared" si="35"/>
         <v>6.2149999999999999</v>
@@ -13580,7 +13580,7 @@
         <v>3.3899999999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H142">
         <v>1</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>235</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>28.91</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H144">
         <f>H123+H137</f>
         <v>6.2149999999999999</v>
@@ -13908,16 +13908,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B32858-A41B-374D-8EC6-591FD4EFEE95}">
   <dimension ref="A1:BH86"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="49" max="49" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -14567,10 +14567,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="64"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -14615,7 +14615,7 @@
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -14660,12 +14660,12 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -14694,7 +14694,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -15549,8 +15549,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>143</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>1</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B49">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="AC49" s="68"/>
     </row>
-    <row r="50" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C50">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="AC50" s="68"/>
     </row>
-    <row r="51" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:45" x14ac:dyDescent="0.2">
       <c r="D51">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16140,7 +16140,7 @@
       </c>
       <c r="AC51" s="68"/>
     </row>
-    <row r="52" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:45" x14ac:dyDescent="0.2">
       <c r="E52">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="AC52" s="68"/>
     </row>
-    <row r="53" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:45" x14ac:dyDescent="0.2">
       <c r="F53">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16306,7 +16306,7 @@
       </c>
       <c r="AC53" s="68"/>
     </row>
-    <row r="54" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:45" x14ac:dyDescent="0.2">
       <c r="I54">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16389,7 +16389,7 @@
       </c>
       <c r="AC54" s="68"/>
     </row>
-    <row r="55" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:45" x14ac:dyDescent="0.2">
       <c r="J55">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16471,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:45" x14ac:dyDescent="0.2">
       <c r="K56">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:45" x14ac:dyDescent="0.2">
       <c r="L57">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16635,7 +16635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:45" x14ac:dyDescent="0.2">
       <c r="M58">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16717,7 +16717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:45" x14ac:dyDescent="0.2">
       <c r="P59">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16799,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:45" x14ac:dyDescent="0.2">
       <c r="Q60">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16881,7 +16881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:45" x14ac:dyDescent="0.2">
       <c r="R61">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:45" x14ac:dyDescent="0.2">
       <c r="S62">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17045,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:45" x14ac:dyDescent="0.2">
       <c r="T63">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17127,7 +17127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:45" x14ac:dyDescent="0.2">
       <c r="W64">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="X65">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17291,7 +17291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Y66">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17373,7 +17373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Z67">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17455,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AA68">
         <f>$B$44</f>
         <v>2.0499439783177111</v>
@@ -17537,7 +17537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>170</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AG70" s="69">
         <f>SUM(AG49:AG68)</f>
         <v>0</v>
@@ -17760,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>216</v>
       </c>
@@ -17994,22 +17994,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3.2</v>
       </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1.7</v>
       </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>218</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C79" s="72">
         <f>(SUM(B73:E73)+SUM(I73:L73)+SUM(P73:S73)+SUM(W73:Z73))/16</f>
         <v>0.88885605104418297</v>
@@ -18034,7 +18034,7 @@
         <v>0.85819771586677485</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>222</v>
       </c>
@@ -18051,7 +18051,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>224</v>
       </c>
@@ -18071,7 +18071,7 @@
         <v>0.84339254400710928</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>0.82376082793840522</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>225</v>
       </c>
@@ -18290,18 +18290,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18323,14 +18323,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -18344,4 +18336,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input_output/model_input_9groups.xlsx
+++ b/input_output/model_input_9groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/MasterV22/master2022/input_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF3678F-EAAD-A74B-BCC1-A475EE87175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43E92F5-C362-9149-BF28-E205EE2C67EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="2160" windowWidth="35920" windowHeight="21420" activeTab="5" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="5" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -7550,8 +7550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667ADA00-9768-9E42-A64A-5CCA52F9FA00}">
   <dimension ref="A1:BH144"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11525,115 +11525,115 @@
       </c>
       <c r="B73">
         <f>B71/$A$75</f>
-        <v>0.39142497203992394</v>
+        <v>0.97856243009980981</v>
       </c>
       <c r="C73">
         <f t="shared" ref="C73:D73" si="7">C71/$A$75</f>
-        <v>0.44579563732710081</v>
+        <v>1.114489093317752</v>
       </c>
       <c r="D73">
         <f t="shared" si="7"/>
-        <v>0.47668810316061688</v>
+        <v>1.1917202579015422</v>
       </c>
       <c r="E73">
         <f>E71/$A$75</f>
-        <v>0.50155418444554012</v>
+        <v>1.2538854611138504</v>
       </c>
       <c r="F73">
         <f>F71/$A$76</f>
-        <v>0.63913516915455992</v>
+        <v>1.5978379228863997</v>
       </c>
       <c r="G73">
         <f>G71/$A$76</f>
-        <v>0.47818022565485324</v>
+        <v>1.1954505641371329</v>
       </c>
       <c r="H73">
         <f>H71/$A$76</f>
-        <v>0.36951118857680293</v>
+        <v>0.92377797144200735</v>
       </c>
       <c r="I73">
         <f t="shared" ref="I73:Z73" si="8">I71/$A$75</f>
-        <v>0.39142497203992394</v>
+        <v>0.97856243009980981</v>
       </c>
       <c r="J73">
         <f t="shared" si="8"/>
-        <v>0.44579563732710076</v>
+        <v>1.1144890933177518</v>
       </c>
       <c r="K73">
         <f t="shared" si="8"/>
-        <v>0.47668810316061694</v>
+        <v>1.1917202579015422</v>
       </c>
       <c r="L73">
         <f t="shared" si="8"/>
-        <v>0.50155418444554023</v>
+        <v>1.2538854611138506</v>
       </c>
       <c r="M73">
         <f t="shared" ref="M73:O73" si="9">M71/$A$76</f>
-        <v>0.63913516915455992</v>
+        <v>1.5978379228863997</v>
       </c>
       <c r="N73">
         <f t="shared" si="9"/>
-        <v>0.47818022565485313</v>
+        <v>1.1954505641371327</v>
       </c>
       <c r="O73">
         <f t="shared" si="9"/>
-        <v>0.36951118857680293</v>
+        <v>0.92377797144200735</v>
       </c>
       <c r="P73">
         <f t="shared" ref="P73" si="10">P71/$A$75</f>
-        <v>0.39142497203992399</v>
+        <v>0.97856243009981003</v>
       </c>
       <c r="Q73">
         <f t="shared" si="8"/>
-        <v>0.44579563732710081</v>
+        <v>1.114489093317752</v>
       </c>
       <c r="R73">
         <f t="shared" si="8"/>
-        <v>0.47668810316061683</v>
+        <v>1.191720257901542</v>
       </c>
       <c r="S73">
         <f t="shared" si="8"/>
-        <v>0.50155418444554012</v>
+        <v>1.2538854611138504</v>
       </c>
       <c r="T73">
         <f t="shared" ref="T73:V73" si="11">T71/$A$76</f>
-        <v>0.63913516915455992</v>
+        <v>1.5978379228863997</v>
       </c>
       <c r="U73">
         <f t="shared" si="11"/>
-        <v>0.47818022565485324</v>
+        <v>1.1954505641371329</v>
       </c>
       <c r="V73">
         <f t="shared" si="11"/>
-        <v>0.36951118857680304</v>
+        <v>0.92377797144200746</v>
       </c>
       <c r="W73">
         <f t="shared" ref="W73" si="12">W71/$A$75</f>
-        <v>0.39142497203992394</v>
+        <v>0.97856243009980981</v>
       </c>
       <c r="X73">
         <f t="shared" si="8"/>
-        <v>0.44579563732710076</v>
+        <v>1.1144890933177518</v>
       </c>
       <c r="Y73">
         <f t="shared" si="8"/>
-        <v>0.47668810316061694</v>
+        <v>1.1917202579015422</v>
       </c>
       <c r="Z73">
         <f t="shared" si="8"/>
-        <v>0.50155418444554012</v>
+        <v>1.2538854611138504</v>
       </c>
       <c r="AA73">
         <f t="shared" ref="AA73:AC73" si="13">AA71/$A$76</f>
-        <v>0.63913516915455992</v>
+        <v>1.5978379228863997</v>
       </c>
       <c r="AB73">
         <f t="shared" si="13"/>
-        <v>0.47818022565485324</v>
+        <v>1.1954505641371329</v>
       </c>
       <c r="AC73">
         <f t="shared" si="13"/>
-        <v>0.36951118857680304</v>
+        <v>0.92377797144200746</v>
       </c>
       <c r="AG73" t="s">
         <v>173</v>
@@ -11811,12 +11811,14 @@
     </row>
     <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>60</v>
+        <f>60*0.4</f>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>49</v>
+        <f>49*0.4</f>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.2">
@@ -11836,15 +11838,15 @@
     <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C79" s="72">
         <f>(SUM(B73:E73)+SUM(I73:L73)+SUM(P73:S73)+SUM(W73:Z73))/16</f>
-        <v>0.45386572424329541</v>
+        <v>1.1346643106082386</v>
       </c>
       <c r="D79" s="72">
         <f>(SUM(F73:H73)+SUM(M73:O73)+SUM(T73:V73)+SUM(AA73:AC73))/12</f>
-        <v>0.49560886112873875</v>
+        <v>1.2390221528218466</v>
       </c>
       <c r="E79" s="72">
         <f>C79*16/28+D79*12/28</f>
-        <v>0.47175564005134252</v>
+        <v>1.1793891001283563</v>
       </c>
       <c r="G79">
         <v>0.8</v>
@@ -13908,8 +13910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B32858-A41B-374D-8EC6-591FD4EFEE95}">
   <dimension ref="A1:BH86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15080,11 +15082,11 @@
       </c>
       <c r="B38" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.6155172413793103</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.32586206896551723</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="1"/>
@@ -15159,11 +15161,11 @@
         <v>0</v>
       </c>
       <c r="W38" s="60">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AA38" s="60">
         <v>14</v>
@@ -15175,11 +15177,11 @@
       </c>
       <c r="B39" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.62424687729610584</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29911829537105072</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="1"/>
@@ -15254,11 +15256,11 @@
         <v>0</v>
       </c>
       <c r="W39" s="60">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="X39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AA39" s="60">
         <v>118</v>
@@ -15270,11 +15272,11 @@
       </c>
       <c r="B40" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.2244897959183675E-2</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.081632653061224E-3</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="1"/>
@@ -15349,11 +15351,11 @@
         <v>0</v>
       </c>
       <c r="W40" s="60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AA40" s="60">
         <v>4</v>
@@ -15365,11 +15367,11 @@
       </c>
       <c r="B41" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.10655737704918032</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.9672131147540983E-2</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="1"/>
@@ -15444,11 +15446,11 @@
         <v>0</v>
       </c>
       <c r="W41" s="60">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="X41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AA41" s="60">
         <v>52</v>
@@ -15460,11 +15462,11 @@
       </c>
       <c r="B42" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5652173913043481E-2</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.6521739130434782E-2</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" si="1"/>
@@ -15539,11 +15541,11 @@
         <v>0</v>
       </c>
       <c r="W42" s="48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AA42" s="48">
         <v>2</v>
@@ -15556,11 +15558,11 @@
       </c>
       <c r="B44" s="65">
         <f>SUM(B34:B42)</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="C44" s="66">
         <f t="shared" ref="C44:U44" si="3">SUM(C34:C42)</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="D44" s="66">
         <f t="shared" si="3"/>
@@ -15894,11 +15896,11 @@
     <row r="49" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B49">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="C49">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="D49">
         <f>$D$44</f>
@@ -15977,11 +15979,11 @@
     <row r="50" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C50">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="D50">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="E50">
         <f>$D$44</f>
@@ -16060,11 +16062,11 @@
     <row r="51" spans="2:45" x14ac:dyDescent="0.2">
       <c r="D51">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="E51">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="F51">
         <f>$D$44</f>
@@ -16143,11 +16145,11 @@
     <row r="52" spans="2:45" x14ac:dyDescent="0.2">
       <c r="E52">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="F52">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="G52">
         <f>$D$44</f>
@@ -16226,11 +16228,11 @@
     <row r="53" spans="2:45" x14ac:dyDescent="0.2">
       <c r="F53">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="G53">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="H53">
         <f>$D$44</f>
@@ -16309,11 +16311,11 @@
     <row r="54" spans="2:45" x14ac:dyDescent="0.2">
       <c r="I54">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="J54">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="K54">
         <f>$D$44</f>
@@ -16392,11 +16394,11 @@
     <row r="55" spans="2:45" x14ac:dyDescent="0.2">
       <c r="J55">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="K55">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="L55">
         <f>$D$44</f>
@@ -16474,11 +16476,11 @@
     <row r="56" spans="2:45" x14ac:dyDescent="0.2">
       <c r="K56">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="L56">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="M56">
         <f>$D$44</f>
@@ -16556,11 +16558,11 @@
     <row r="57" spans="2:45" x14ac:dyDescent="0.2">
       <c r="L57">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="M57">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="N57">
         <f>$D$44</f>
@@ -16638,11 +16640,11 @@
     <row r="58" spans="2:45" x14ac:dyDescent="0.2">
       <c r="M58">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="N58">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="O58">
         <f>$D$44</f>
@@ -16720,11 +16722,11 @@
     <row r="59" spans="2:45" x14ac:dyDescent="0.2">
       <c r="P59">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="Q59">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="R59">
         <f>$D$44</f>
@@ -16802,11 +16804,11 @@
     <row r="60" spans="2:45" x14ac:dyDescent="0.2">
       <c r="Q60">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="R60">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="S60">
         <f>$D$44</f>
@@ -16884,11 +16886,11 @@
     <row r="61" spans="2:45" x14ac:dyDescent="0.2">
       <c r="R61">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="S61">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="T61">
         <f>$D$44</f>
@@ -16966,11 +16968,11 @@
     <row r="62" spans="2:45" x14ac:dyDescent="0.2">
       <c r="S62">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="T62">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="U62">
         <f>$D$44</f>
@@ -17048,11 +17050,11 @@
     <row r="63" spans="2:45" x14ac:dyDescent="0.2">
       <c r="T63">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="U63">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="V63">
         <f>$D$44</f>
@@ -17130,11 +17132,11 @@
     <row r="64" spans="2:45" x14ac:dyDescent="0.2">
       <c r="W64">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="X64">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="Y64">
         <f>$D$44</f>
@@ -17212,11 +17214,11 @@
     <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="X65">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="Y65">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="Z65">
         <f>$D$44</f>
@@ -17294,11 +17296,11 @@
     <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Y66">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="Z66">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="AA66">
         <f>$D$44</f>
@@ -17376,11 +17378,11 @@
     <row r="67" spans="1:60" x14ac:dyDescent="0.2">
       <c r="Z67">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="AA67">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="AB67">
         <f>$D$44</f>
@@ -17458,11 +17460,11 @@
     <row r="68" spans="1:60" x14ac:dyDescent="0.2">
       <c r="AA68">
         <f>$B$44</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="AB68">
         <f>$C$44</f>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="AC68" s="68">
         <f>$D$44</f>
@@ -17766,27 +17768,27 @@
       </c>
       <c r="B71">
         <f>SUM(B49:B69)</f>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="C71">
         <f t="shared" ref="C71:AC71" si="6">SUM(C49:C69)</f>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="D71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="E71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="F71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="G71">
         <f t="shared" si="6"/>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="H71">
         <f t="shared" si="6"/>
@@ -17794,27 +17796,27 @@
       </c>
       <c r="I71">
         <f t="shared" si="6"/>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="J71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="K71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="L71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="M71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="N71">
         <f t="shared" si="6"/>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="O71">
         <f t="shared" si="6"/>
@@ -17822,27 +17824,27 @@
       </c>
       <c r="P71">
         <f t="shared" si="6"/>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="Q71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="R71">
         <f>SUM(R49:R69)</f>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="S71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="T71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="U71">
         <f t="shared" si="6"/>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="V71">
         <f t="shared" si="6"/>
@@ -17850,27 +17852,27 @@
       </c>
       <c r="W71">
         <f t="shared" si="6"/>
-        <v>2.0499439783177111</v>
+        <v>3.5041625459145349</v>
       </c>
       <c r="X71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="Y71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="Z71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="AA71">
         <f t="shared" si="6"/>
-        <v>3.1091378250159436</v>
+        <v>5.3086122598803724</v>
       </c>
       <c r="AB71">
         <f t="shared" si="6"/>
-        <v>1.0591938466982325</v>
+        <v>1.8044497139658373</v>
       </c>
       <c r="AC71">
         <f t="shared" si="6"/>
@@ -17883,27 +17885,27 @@
       </c>
       <c r="B73">
         <f>B71/$A$75</f>
-        <v>0.64060749322428467</v>
+        <v>0.79640057861693969</v>
       </c>
       <c r="C73">
         <f t="shared" ref="C73:D73" si="7">C71/$A$75</f>
-        <v>0.97160557031748229</v>
+        <v>1.2065027863364481</v>
       </c>
       <c r="D73">
         <f t="shared" si="7"/>
-        <v>0.97160557031748229</v>
+        <v>1.2065027863364481</v>
       </c>
       <c r="E73">
         <f>E71/$A$75</f>
-        <v>0.97160557031748229</v>
+        <v>1.2065027863364481</v>
       </c>
       <c r="F73">
         <f>F71/$A$76</f>
-        <v>1.8289046029505551</v>
+        <v>2.211921774950155</v>
       </c>
       <c r="G73">
         <f>G71/$A$76</f>
-        <v>0.6230552039401368</v>
+        <v>0.75185404748576545</v>
       </c>
       <c r="H73">
         <f>H71/$A$76</f>
@@ -17911,27 +17913,27 @@
       </c>
       <c r="I73">
         <f t="shared" ref="I73:Z73" si="8">I71/$A$75</f>
-        <v>0.64060749322428467</v>
+        <v>0.79640057861693969</v>
       </c>
       <c r="J73">
         <f t="shared" si="8"/>
-        <v>0.97160557031748229</v>
+        <v>1.2065027863364481</v>
       </c>
       <c r="K73">
         <f t="shared" si="8"/>
-        <v>0.97160557031748229</v>
+        <v>1.2065027863364481</v>
       </c>
       <c r="L73">
         <f t="shared" si="8"/>
-        <v>0.97160557031748229</v>
+        <v>1.2065027863364481</v>
       </c>
       <c r="M73">
         <f t="shared" ref="M73:O73" si="9">M71/$A$76</f>
-        <v>1.8289046029505551</v>
+        <v>2.211921774950155</v>
       </c>
       <c r="N73">
         <f t="shared" si="9"/>
-        <v>0.6230552039401368</v>
+        <v>0.75185404748576545</v>
       </c>
       <c r="O73">
         <f t="shared" si="9"/>
@@ -17939,27 +17941,27 @@
       </c>
       <c r="P73">
         <f t="shared" ref="P73" si="10">P71/$A$75</f>
-        <v>0.64060749322428467</v>
+        <v>0.79640057861693969</v>
       </c>
       <c r="Q73">
         <f t="shared" si="8"/>
-        <v>0.97160557031748229</v>
+        <v>1.2065027863364481</v>
       </c>
       <c r="R73">
         <f t="shared" si="8"/>
-        <v>0.97160557031748229</v>
+        <v>1.2065027863364481</v>
       </c>
       <c r="S73">
         <f t="shared" si="8"/>
-        <v>0.97160557031748229</v>
+        <v>1.2065027863364481</v>
       </c>
       <c r="T73">
         <f t="shared" ref="T73:V73" si="11">T71/$A$76</f>
-        <v>1.8289046029505551</v>
+        <v>2.211921774950155</v>
       </c>
       <c r="U73">
         <f t="shared" si="11"/>
-        <v>0.6230552039401368</v>
+        <v>0.75185404748576545</v>
       </c>
       <c r="V73">
         <f t="shared" si="11"/>
@@ -17967,27 +17969,27 @@
       </c>
       <c r="W73">
         <f t="shared" ref="W73" si="12">W71/$A$75</f>
-        <v>0.64060749322428467</v>
+        <v>0.79640057861693969</v>
       </c>
       <c r="X73">
         <f t="shared" si="8"/>
-        <v>0.97160557031748229</v>
+        <v>1.2065027863364481</v>
       </c>
       <c r="Y73">
         <f t="shared" si="8"/>
-        <v>0.97160557031748229</v>
+        <v>1.2065027863364481</v>
       </c>
       <c r="Z73">
         <f t="shared" si="8"/>
-        <v>0.97160557031748229</v>
+        <v>1.2065027863364481</v>
       </c>
       <c r="AA73">
         <f t="shared" ref="AA73:AC73" si="13">AA71/$A$76</f>
-        <v>1.8289046029505551</v>
+        <v>2.211921774950155</v>
       </c>
       <c r="AB73">
         <f t="shared" si="13"/>
-        <v>0.6230552039401368</v>
+        <v>0.75185404748576545</v>
       </c>
       <c r="AC73">
         <f t="shared" si="13"/>
@@ -18001,12 +18003,14 @@
     </row>
     <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>3.2</v>
+        <f>11*0.4</f>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="76" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1.7</v>
+        <f>6*0.4</f>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.2">
@@ -18023,15 +18027,15 @@
     <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C79" s="72">
         <f>(SUM(B73:E73)+SUM(I73:L73)+SUM(P73:S73)+SUM(W73:Z73))/16</f>
-        <v>0.88885605104418297</v>
+        <v>1.103977234406571</v>
       </c>
       <c r="D79" s="72">
         <f>(SUM(F73:H73)+SUM(M73:O73)+SUM(T73:V73)+SUM(AA73:AC73))/12</f>
-        <v>0.81731993563023064</v>
+        <v>0.98792527414530673</v>
       </c>
       <c r="E79" s="72">
         <f>C79*16/28+D79*12/28</f>
-        <v>0.85819771586677485</v>
+        <v>1.0542406800088864</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -18290,18 +18294,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18323,6 +18327,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -18336,12 +18348,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>